--- a/PCAstatic/PCAstatic_predicted_variables_matrix_12.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.2853554114161184</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2731657682222271</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2621457828236489</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2523449789701612</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2437867718497197</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2364635826105</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2303451515647546</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.225382480070787</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.221511955877055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2186588998371395</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2167407563445163</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2156699007984414</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2153560892302581</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2157085650825271</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2166378420044314</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2180571824437786</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2198837933088749</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2220397611446256</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2244527501928356</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2270564872737804</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2297910576009718</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2326030354145666</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2354454727138644</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2382777684296418</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2410654391595416</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2437798111563858</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2463976516714842</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2489007560695249</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2512755053983533</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2535124073581702</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2556056319050071</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.257552551070531</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2593532910058745</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2610103027777596</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2625279570727508</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2639121667084938</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2651700397145061</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2663095647320778</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2673393295932402</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2682682731706307</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2691054699395982</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2698599461556645</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2705405261177329</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.2264815475147129</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2356447324994358</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2441693490100853</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2518712720340683</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2586341470814562</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.264391655427996</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2691195081937811</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2728270945624838</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2755504539620949</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2773460766201017</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2782855332028711</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2784508407218062</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2779305031427417</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2768161661107801</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2751998310649079</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2731715773733688</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2708177437799303</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2682195223511022</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2654519196536849</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2625830413392233</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2596736578862865</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2567770110871467</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2539388230220036</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2511974717395893</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2485843006125925</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2461240312887025</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2438352532308994</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2417309659517025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.23981915312081</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2381033707010506</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2365833340943678</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2352554919214212</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2341135764910738</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2331491232254419</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2323519532864693</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2317106154017294</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2312127844157823</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2308456154079137</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2305960533289884</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2304510990328055</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2303980333252282</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2304246012427164</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2305191592162828</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.1639335237174323</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1756566852324029</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1867895975461703</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1971520733559838</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2066242505846503</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2151251679536958</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2226103162375389</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.229065328672339</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2345010467409153</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2389488302406526</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2424563498617174</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2450837964469346</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2469005050313551</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2479819765680314</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2484072821463145</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2482568322234037</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2476104916256797</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2465460190259717</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2451378077035961</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2434559027882293</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2415652690247187</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2395252824492961</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2373894192605498</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2352051155771039</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2330137726421687</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2308508832875362</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2287462570224638</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2267243228826772</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2248044910838741</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2230015565043586</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2213261290153521</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2197850776385223</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2183819774019592</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2171175495607552</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2159900875267411</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2149958624003244</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2141295034075414</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.213384349813324</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2127527720069874</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2122264604402112</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2117966819456884</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2114545036823167</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2111909855478576</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>-0.06076350444494787</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05378318659272448</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.04780909912285674</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.04285627490691767</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.03890101835238648</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.03590266360477495</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.0338046018485593</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.0325391169775846</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.03203071046169276</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.03219913929335309</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.03296195699920645</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.0342366536239672</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.03594241949225709</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.03800157014398754</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.04034066481725175</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.04289135013686073</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.04559095934294746</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.04838289636443815</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.05121683294782783</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.05404874584573112</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.05684081968561722</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.05956123956240678</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.06218389564279605</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.06468802016975</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.0670577752597106</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.06928180784364378</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07135278606501025</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07326692945620975</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.07502354330542252</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.07662456582526803</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.07807413506266267</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.07937818095820881</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.08054404658012172</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.08158014132430033</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.08249562778730114</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.08330014307867986</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.0840035545373729</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.08461574914603526</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.08514645538895016</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08560509586396162</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08600066862699281</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.08634165500895304</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.08663595148892206</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>0.169390056545683</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.181546445241836</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.192121956699666</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.201140528056081</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2086449798956408</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2147057418250945</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2194129556494324</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.222871458384004</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2251958704271534</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2265065026089744</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2269258597991559</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2265757214346677</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2255747382330197</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2240364978417106</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.222068013547469</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2197685931756778</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2172290470276666</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2145311951073909</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.211747635122614</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2089417340722854</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2061678077972647</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2034714547528323</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.2008900124684244</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1984531076549667</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1961832736351041</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1940966116241999</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1922034752958391</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1905091609468025</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1890145883666896</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1877169601638865</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1866103897637054</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1856864905503622</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1849349206571709</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1843438797130719</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1839005554295462</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1835915192665482</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1834030715595788</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1833215374353355</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.183333515605195</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1834260827198667</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1835869564112202</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1838046204550162</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1840684156773604</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.4356445599420135</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4258553677897643</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4166695007844818</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4082331715805441</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.4006474813420909</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.3939762806359248</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.3882522967320675</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3834820019857243</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3796501327344735</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3767237799947739</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3746560907060434</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3733895851493839</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.3728591036843848</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.3729943967544359</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.3737223744927606</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3749690339807052</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.3766610837643721</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.3787272865261432</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.3810995418250094</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.3837137315230599</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.3865103508813355</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.3894349483299918</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.3924383966081634</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.3954770173563451</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.3985125803675753</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4015121976078485</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.4044481308472341</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4072975303457926</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4100421205538179</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.4126678472511062</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4151644989971006</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.41752531422072</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4197465837690818</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4218272572781225</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4237685603418542</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4255736281541369</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4272471600879678</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4287950985702422</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4302243346099852</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4315424414479838</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4327574370160827</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4338775752235541</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4349111655224825</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.2393301955754415</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2270856353109787</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2152947336385797</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2041108795779336</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1936399638596167</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1839632197087912</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1751358218158426</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1671903950458175</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1601395307624632</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1539784995182964</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.148687834233251</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1442358115785821</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.14058079090378</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1376733924352289</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1354584985027554</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1338770673679189</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1328677536745323</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1323683337785743</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1323169379653194</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1326530948446904</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1333185959909091</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1342581911494069</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1354201260782557</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1367565363466616</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1382237112165984</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1397822421320677</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1413970703856218</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1430374482771516</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1446768275779841</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1462926884137047</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.147866320827499</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1493825703235147</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1508295576534117</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1521983820310875</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1534828158683341</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1546789980416663</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1557851316476372</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1568011911969598</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1577286432496245</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1585701836138075</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1593294934276903</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1600110157197508</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1606197534017238</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>-0.3865228705633241</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3730913796863385</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3597353855788931</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3468863076683744</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3348590236895403</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3238854429280679</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.31412324136252</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3056681215324945</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.2985638810580546</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.2928116712350075</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.2883782275875281</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2852031943874182</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.283205587720345</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.2822894559051694</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.2823487903590017</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.2832717390855111</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.2849441737135505</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.2872526604958692</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.2900868854188991</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.2933415833715632</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.2969180209327471</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3007250815988122</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3046800010877234</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3087087986948465</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3127464485592521</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3167368321866065</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3206325107444997</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3243943525856597</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3279910482502727</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3313985419300399</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3345994051129908</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3375821749276502</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3403406766150138</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.342873346614006</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3451825699788666</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3472740432758643</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3491561717460197</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3508395073788075</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3523362326229442</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3536596927641525</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3548239785223328</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3558435591548867</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3567329652893714</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.3824738648120228</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3928427177312615</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4017031701705641</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.409107275111305</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4151307269142496</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4198649228165557</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4234128255687893</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.425884840438013</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4273954166134165</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4280601348942744</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.427993270068949</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4273057756126037</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4261036539160454</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4244866765343515</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4225474217521351</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4203705979907234</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4180326223222181</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4156014237835725</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4131364416194993</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4106887892230898</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.408301555510449</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4060102168067617</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4038431340238467</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4018221119203862</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3999629994788393</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3982763128214295</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3967678645367279</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3954393857219284</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3942891294001433</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3933124461970938</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.392502325221485</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3918498949645938</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3913448807043399</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3909760163631342</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3907314100295604</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3905988634188985</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3905661464275987</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3906212286453956</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3907524702405896</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3909487750446817</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3911997089477637</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.391495586891474</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3918275318270169</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>-0.2254886890718342</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2175112132285586</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2102600232891462</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2037874278667863</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.1981266327182833</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.193288325336189</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.1892651280535042</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.1860344670615158</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.1835615430629517</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.1818019674903236</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.1807041565780104</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.180211465805268</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1802640745056229</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.1808006275867599</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.1817596445462347</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.1830807075450268</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.1847054419542978</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.1865783041081956</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.1886471920204707</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.1908638955114529</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.1931844025422209</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.1955690785767942</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.19798273551979</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.2003946062453631</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2027782399880293</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.2051113329528313</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2073755074649169</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2095560518566666</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2116416321187729</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2136239851498137</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.2154976022515727</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.217259410355068</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2189084573414564</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2204456067559907</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2218732462124232</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2231950128576599</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2244155384177783</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2255402155804806</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2265749867875201</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.227526155913812</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2284002227964743</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2292037401442497</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2299431920017896</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2022,132 @@
       <c r="E12" t="n">
         <v>-0.04964647790338157</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.03502830634812816</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.02314891071488058</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.01390471755453528</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.00714257077283225</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.002676670181288102</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.0002984827568427856</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0002142050278086047</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.0009101288715588352</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.00344291481103591</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.00716051679778705</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01184824961561681</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.017303500122539</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.0233380577378494</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.02977974998080356</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.0364734720102103</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.04328169311407311</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.05008451779863024</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.05677937410936718</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.06328039681700198</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.06951756795222294</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.07543567181192065</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.08099311600453017</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.08616066442492876</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.09092012235152855</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.09526300824989603</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.09918924145254485</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.102705869752255</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1058258561652644</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1085669397390811</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.1109505813260799</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.1130010017304709</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1147443165610481</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1162077694734667</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1174190632442522</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.1184057862597489</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1191949304988236</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1198124959084627</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1202831751855093</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1206301123545735</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.120874728140745</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1210366049460661</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1211334242217665</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2165,132 @@
       <c r="E13" t="n">
         <v>-0.01260673137097106</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01222556556241347</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.01206763512157677</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.01217950945235066</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.01258166084801197</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.01328062530027614</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.01427006079469093</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.01553401174390315</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.01704932196237274</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.01878780215712176</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.02071804271758131</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02280693391489005</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.02502091744753904</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.02732699920149368</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.02969354941504215</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.03209091507539313</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.03449186772736246</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.03687190844034989</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.03920945027092709</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.0414858971543374</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.0436856367270694</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.04579596311861952</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.04780694426102834</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.04971124676698346</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.05150392994311254</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.05318221905719166</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.0547452665871358</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.056193908863071</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.05753042428455787</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.05875829816202739</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.0598819981997125</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.06090676370870272</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.06183841081250001</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.06268315518103071</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.06344745319847107</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.06413786193052801</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.06476091780234342</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.0653230335229289</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.06583041248963048</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.06628897967012025</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.06670432778324359</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.06708167747721891</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.06742585012776817</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2308,132 @@
       <c r="E14" t="n">
         <v>0.1218856901724873</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1489424897933141</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1711895659981267</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1887688677800462</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.201908379630753</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2109108774956538</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2161302090740314</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2179535856157088</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.2167861087430866</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2130380613973019</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2071144960818313</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1994068918522436</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1902866287596517</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1801000624936893</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.1691650000691426</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1577683947816708</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1461650925919691</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1345774741860654</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.1231958478851749</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.1121794590516517</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.1016579921033765</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.09173345194267876</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.08248232257776125</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.07395791188298367</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.06619280264711729</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.05920134109840494</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.05298210477354705</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04752030173825951</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.04279006262840222</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.03875659566106796</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.03537818260155448</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.03260800063629059</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.03039576119365531</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.02868916199640526</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.02743515305965777</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.02658102101681954</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.02607529911953897</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.02586851257784818</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.02591377064621626</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.02616721808351997</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.02658835938226289</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.02714026953516063</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.02778970514332498</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2451,132 @@
       <c r="E15" t="n">
         <v>0.06284672383609999</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.09026039973509585</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1116969250900675</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1274363597045785</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.137850064711372</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1433851749730909</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.144536305992542</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.141825063335167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1357823768172806</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1269342413821472</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1157902725814697</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.1028347738520339</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.08851999054675654</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.07326126980853222</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.05743386996605751</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.04137118671765881</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.02536418278676229</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.009661824890954976</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.005527652457873927</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.0200348218187514</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.03372662707454362</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.04650357299604364</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.05829666118635161</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.06906417867545647</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.07878843088281764</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.08747249658290465</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.09513706910983152</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1018174355055013</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1075606337899472</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1124228181041043</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1164668521901984</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1197601435405896</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1223727235381523</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1243755729824875</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1258391874821705</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1268323732188094</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1274212604725893</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1276685199571047</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1276327653590953</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1273681244331436</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1269239604819474</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1263447259825713</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1256699304253786</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2594,132 @@
       <c r="E16" t="n">
         <v>0.4557965914896805</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4951342025629344</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5269600068364854</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5515443696941601</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5693058276397931</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5807647958002307</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5865113107510878</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5871773731154817</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5834141136240663</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5758729897352649</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5651905952983358</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.551976634499215</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5368046750256746</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.520205332189315</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5026615703338874</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4846058355847482</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4664187572219075</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4484291748726783</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.4309152667313488</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.414106571183846</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.398186711263302</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3832966486553604</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.369538311590812</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3569784587821583</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3456526593299318</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3355692859402774</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.326713435553518</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3190507073159752</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.312530782521503</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3070907645550519</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.302658248899363</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2991541038829652</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.2964949520631027</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.294595349995654</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2933696707152001</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2927336986189631</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2926059507157093</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2929087414678843</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2935690108271707</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2945189366445718</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.295696353527652</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2970450005173544</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2985146197574745</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2737,132 @@
       <c r="E17" t="n">
         <v>0.6604008533311209</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6779047869117729</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6899856362464851</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6970197764727556</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6994477611258048</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6977632107275238</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6924868466351093</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.6841485263358169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6732721319311638</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6603637533334935</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6459025345022538</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6303338647571906</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6140645799391209</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.5974598872680426</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.580841756001673</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5644885425606629</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5486356406728609</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.5334769663373594</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5191671048451553</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.50582396353467</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4935317898969534</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4823444303245307</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.472288720263309</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4633679116851864</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4555650584785295</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4488462943554004</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4431639510080972</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4384594763550839</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.434666123683669</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4317113922567541</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4295192084808191</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4280118440471339</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4271115736032374</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4267420795545815</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4268296156195284</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4273039438564221</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4280990621453563</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4291537406364155</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4304118865656385</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4318227571811171</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4333410404010029</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4349268223234685</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.436545459900408</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2880,132 @@
       <c r="E18" t="n">
         <v>0.02278291027942393</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.01333571503561112</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.004356110354767836</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.004332446806449355</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.01287139949346619</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.02134375795998061</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.02979208478127757</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.03822715521865999</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.04663671046169919</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.05499237573817402</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.06325539129027621</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07138121935635941</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.0793232015399527</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.08703539748281891</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.09447472613162293</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1016025156971635</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1083855564722663</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1147967398945032</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1208153577763474</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1264271271339322</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1316239983340642</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1364037971868506</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.14076974503796</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1447298948042203</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1482965152260469</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1514854503767715</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1543154766778485</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1568076753264791</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1589848341503982</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1608708894586187</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1624904154444913</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1638681660994407</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1650286723876114</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1659958955850008</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1667929361707504</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1674417964414853</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1679631940703165</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1683764231196625</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1686992585119656</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1689478996369502</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1691369486023118</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1692794185925631</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1693867678660085</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3023,132 @@
       <c r="E19" t="n">
         <v>0.4216328520774465</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4304435921089943</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.436681157611747</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4404856634653123</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4420254913640754</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4415048863798438</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4391499930045777</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.4351993780495257</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4298955661761508</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4234782939067233</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.416179103548647</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4082171530094211</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3997960781515755</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3911017712451278</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3823009501675094</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3735404048975863</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3649468172866637</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3566270584658064</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3486688759052031</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3411418895027625</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3340988233771972</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3275769073847855</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3215993897719499</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3161771097511095</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.311310086039333</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3069890844096638</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.3031971339610017</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2999109680192508</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2971023712689896</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2947394198352601</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2927876055670313</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2912108397156126</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2899723345673862</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2890353644075848</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2883639094960275</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2879231885678463</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2876800867764867</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2876034870180474</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.287664513260579</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2878366948933492</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2880960612515593</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2884211754014155</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2887931160260672</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3166,132 @@
       <c r="E20" t="n">
         <v>0.3948017488692378</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4300331526484729</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4576920966484464</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4781342898980017</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4918555349220347</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4994363650381225</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5015135003421255</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4987532852609215</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4918304369303816</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4814106373963579</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.4681366829248084</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4526177059752851</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.4354210882856258</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4170667129166192</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.3980232401994164</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3787061206807053</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.3594770824323654</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.3406448510579606</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.3224668798613899</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.3051518859023115</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.288863005704989</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2737214025264312</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2598101753746823</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2471784382594652</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2358454562070417</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.225804742089113</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2170280350192829</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2094690967171581</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.2030672766432286</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1977508097426328</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.193439822237082</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1900490310570357</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1874901312377432</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1856738729714805</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1845118360950892</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1839179146923104</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1838095283085024</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.184108579119158</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1847421763717974</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1856431506399689</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1867503809913777</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1880089581778273</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1893702064952747</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3309,132 @@
       <c r="E21" t="n">
         <v>0.6102442706150026</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.6423280937497016</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6670058625263675</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6849213435880773</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6967591600290839</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.7032180111538632</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.7049939586339357</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7027663823262885</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6971869942574909</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6888713258535448</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6783924051956595</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6662763218223988</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6529994252524054</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6389869282812983</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.6246127090594354</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.6102001238740082</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5960236576420012</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5823112523594942</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5692471661659525</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.556975227935114</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5456023647755479</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5352022926352031</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5258192732876228</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5174718541447688</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5101565203455086</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.503851201152178</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.4985185846157561</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.4941092055515614</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4905642819621768</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4878182840649845</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.485801227988319</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4844406929929349</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4836635667861197</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4833975281795975</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4835722800708904</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4841205485826874</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.484978866263191</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4860881586214073</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4873941540332427</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4888476372927773</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4904045668799634</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4920260754481134</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.493678372173238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3452,132 @@
       <c r="E22" t="n">
         <v>0.440520803276416</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4601829110991982</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.47455146037007</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4839659340243761</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4888472054299296</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.489660646866633</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4868985448184336</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.481062283848614</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4726485997527964</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4621384865486865</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.4499886117125637</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.4366248658290194</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.422437765827444</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.4077794500884677</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3929620335115711</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3782571127452584</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3638962311791621</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.3500721301170571</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.3369406279013299</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.324622983297736</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.313208613629274</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.3027580521818464</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2933060433229688</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2848646874827484</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2774265614778754</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2709677524240425</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2654507554984322</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2608271969302545</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2570403537031671</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2540274504816909</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2517217221982655</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2500542375671349</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2489554845625259</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2483567236689009</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2481911185519297</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.248394656790411</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2489068755362674</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2496714085176615</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2506363717537867</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2517546057906816</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2529837922732356</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2542864623123987</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2556299134562035</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3595,132 @@
       <c r="E23" t="n">
         <v>-0.00938905738615109</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.007428110199243887</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01949601608046572</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02719151740003928</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.03092023723215137</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.03111923339295183</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0282379696728961</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.02272616963786542</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.01502315083752925</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.005549606153318509</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.005298717336625125</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.01715563904529696</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.02968770976281795</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.04259612604117811</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.05561758204039183</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.06852422825982714</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.08112289132504205</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.0932536951978656</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1047882114301951</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1156272538697705</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.125698421281252</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1349534795539708</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1433656635453065</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1509269672542391</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1576454800732442</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1635428164766147</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1686516768031849</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1730135678867711</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1766767042498345</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1796941034421924</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.182121882883504</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1840177602368387</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1854397548623891</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1864450842229259</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1870892461744108</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1874252758096589</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1875031638612295</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1873694225429991</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1870667840507866</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1866340166861881</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1861058436529028</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1855129499435338</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1848820633334592</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3738,132 @@
       <c r="E24" t="n">
         <v>4.499034851333548</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.334824766757317</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.134537408136564</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.909039468652721</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.667782073406155</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.418819518833256</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.168919612185245</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.923663516054726</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.687551377688936</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.464107129231339</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.255981882096624</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.065054536088446</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.892528707979519</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.739025193388676</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.604669322792891</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.489172691464586</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.391908861040804</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.311982746727424</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.248293519444864</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.199590964104718</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.164525340696241</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.141690891008789</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.129663218262613</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.127030838114403</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.132421256735458</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.144521974968151</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.162096847583876</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.183998244449456</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.209175467278827</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.236679873051673</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.265667144598383</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.295397131716606</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.32523166384784</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.354630709040452</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.383147224773678</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.410421015206276</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.436171877412282</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.460192286926684</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.482339841086514</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.502529647753878</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.520726817484453</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.536939189403619</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.551210395233204</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3881,132 @@
       <c r="E25" t="n">
         <v>0.4247021139326198</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3991742157454077</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3771536784312828</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3581797782563662</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3420989781575413</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3286737542975412</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3176781362530273</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3088828553383138</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3020628926386241</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.296999093296831</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2934804991046822</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2913060647835247</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.2902860798110932</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.2902432485912891</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.2910134640768451</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2924462948196119</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.2944052114197684</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.2967675792041863</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.2994244452512378</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3022801483175669</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.30525178008816</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3082685254499511</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3112709082666379</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3142099674954597</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3170463865329521</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3197495965015191</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3222968718805205</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3246724345220466</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3268665797380115</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3288748358545515</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3306971664432447</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3323372223874049</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.33380164904772</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3350994520695835</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3362414238331461</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3372396311899447</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3381069639562824</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3388567426392734</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3395023830496873</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3400571147972372</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3405337501576815</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3409444994346143</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3413008286986854</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4024,132 @@
       <c r="E26" t="n">
         <v>0.3140868241917841</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2936969392500395</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2736612016012454</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2544209603235923</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2362430169677842</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2193192611184075</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2037817370138434</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1897122330666753</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1771496200068664</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.166096580327426</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1565256960812492</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1483850327747738</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1416032187269133</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.136094030514833</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1317604930742466</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1284985067229766</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1262000162653458</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1247557405554773</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1240574840471068</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1240000548301606</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.124482816264548</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1254109014274861</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1266961210944256</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1282575968313488</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1300221509921979</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1319244850322096</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1339071766353214</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1359205247960762</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1379222702839122</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1398772169392439</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1417567770891938</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1435384621001661</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1452053367686612</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1467454539446056</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1481512835272632</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1494191478079179</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1505486730836915</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1515422655538799</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1524046177489601</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1531422501425971</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1537630911636993</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.154276097560099</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1546909159655958</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4167,132 @@
       <c r="E27" t="n">
         <v>0.2548273247404129</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2254247597035961</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1978118463224468</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1721148884961007</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1485038645916665</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1270516359779505</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1077892252544566</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.09070425628877947</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.07574974967733301</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06284970297738937</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.05190476888719484</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04279738563658658</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.03539649232005718</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0295617862537044</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.02514752361591</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.02200586251289139</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.01998975569156151</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.01895540570329985</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01876430091949069</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.01928485562949523</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.02039368148629422</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02197652067490446</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.02392887333206695</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.02615635296208758</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.02857480394112124</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.03111021478066714</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.03369845974919228</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.03628489985347119</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.03882387218069555</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.04127809431207829</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.04361800803968593</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.04582108403787206</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.04787110653233378</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.04975745443369692</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.05147439290701681</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.05302038697148818</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.05439744649472382</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.05561050988401116</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05666687189704751</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05757565930499159</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05834735664445181</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.0589933829911829</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05952571957210152</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4310,132 @@
       <c r="E28" t="n">
         <v>1.008011257554502</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9772625874404025</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9480804000053761</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9209677219973221</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.896177023059932</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8738820735026823</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8541717505363293</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8370670580126087</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.822531860680521</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8104837455083863</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.800803534261695</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7933438643684733</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.7879368031375442</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.7844005527021912</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.7825452867449718</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.7821781672233904</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.7831075907576525</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.7851467167225493</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.7881163309685031</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.7918471006645024</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.7961812767921407</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8009739012158985</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8060935749333322</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8114228430534498</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8168582502954349</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8223101184151388</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8277020940506616</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8329705121409243</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8380636164250044</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.842940674683278</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8475710224328322</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.851933064826459</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8560132626014543</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.8598051241437464</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8633082221252518</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8665272497777883</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.86947112871572</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8721521773333899</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8745853461961741</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8767875245225745</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8787769198197842</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8805725109819342</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8821935736792766</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4453,132 @@
       <c r="E29" t="n">
         <v>4.758028580410393</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.376874903802051</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.017998400276368</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.68323695480369</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.373819799432523</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.09048761515534</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.833523815143307</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.602804936138198</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.397849657897381</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.21786929462738</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.061817553486483</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.928438850396588</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.816314378325368</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.723905328873591</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.64959279078385</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.591713978481192</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.548594562141984</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.518576981309802</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.500044724170442</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.4914426427765</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.491293449493531</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.498210601135204</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.51090782472374</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.528205573188943</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.549034721670112</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.572437826754641</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.597568273459311</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.623687629546767</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.650161515328097</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.676454280784979</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.70212276186934</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.726809365278815</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.750234706792665</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.772190003180459</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.792529392435191</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.811162332191508</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.828046202124426</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.843179213248859</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.856593705637281</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.868349896349438</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.878530121464584</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.88723360010445</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.894571734262924</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4596,132 @@
       <c r="E30" t="n">
         <v>0.8822712591310228</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8426310708918342</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8067816933771969</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7748178557194818</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7466332577279964</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7221002605383707</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.7010470866431232</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6832733901641732</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6685567425144893</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6566596886039254</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.647335650225601</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6403342030774694</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.63540565143973</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.632304947445953</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6307949800614777</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6306492688592652</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.631654100297015</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.633610147836426</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6363336199142799</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.639656981767819</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6434292982617604</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6475162451466767</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6517998356136026</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6561779076646231</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6605634157937749</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6648835678870189</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6690788452321921</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6731019402052305</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6769166426840776</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6804967026400183</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6838246927562476</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6868908913989723</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6896922028766579</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6922311287147814</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6945148006819277</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6965540835536335</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.6983627531099054</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.699956752640203</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.7013535292788552</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7025714498118054</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7036292941748733</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.7045458236930329</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7053394201749018</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4739,132 @@
       <c r="E31" t="n">
         <v>-0.3146645474624056</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3518587476078429</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3837994853455403</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4105288464519508</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4325406527604033</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4502651431148724</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4641491779590648</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4746265675360948</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.482117097154476</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4870212667116877</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4897172183844141</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4905581974008988</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4898707872038947</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4879537749731246</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4850775962565876</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4814842907452283</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4773879065755358</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4729752904851711</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4684072023861042</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.463819694465008</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4593256972632618</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4550167583242711</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4509648828881666</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4472244306343091</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4438340274516565</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4408184564703526</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4381904979343925</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4359526927733265</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4340990098059389</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4326164012757386</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4314862358013303</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4306856017753509</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4301884777375642</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4299667692734443</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4299912145562368</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4302321627761589</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.430660231410944</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4312468496186407</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4319646960109982</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4327880397302774</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4336929941408169</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4346576925957149</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4356623956839754</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4882,132 @@
       <c r="E32" t="n">
         <v>0.7022925687326504</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6790068811427062</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6569522840948744</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6363960963942884</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6175602585260923</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6005685661909623</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5854861801478088</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5723256795371091</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5610575614744699</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5516181805018042</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5439170741299776</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5378434060613903</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5332716591680814</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5300666088273225</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5280876260915021</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5271923543818363</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5272398036158595</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5280929051572776</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.529620571063569</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5316993012801164</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5342143825387676</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.53706072255847</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5401433625865643</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5433777102916801</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5466895335115762</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5500147534049763</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.553299073219208</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5564974762457676</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5595736236801845</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5624991801149742</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5652530913520649</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5678208361909587</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5701936708872888</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5723678821288982</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5743440616788309</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5761264133136635</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5777221003607994</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.579140640022502</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5803933487747408</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5814928414476324</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5824525851294355</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5832865077821496</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5840086604051238</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5025,132 @@
       <c r="E33" t="n">
         <v>0.8592358638905568</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8400825701383862</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8227831499616496</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8072686927038356</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7935811805406914</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7816952423212783</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7715597212714419</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7630971864180656</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7562114758091514</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7507923513467588</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7467199768839857</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7438687151837109</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7421104039409026</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7413171266474272</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7413635245187139</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7421286872882649</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7434976607705822</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.745362607511622</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7476236558175646</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.75018947141057</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7529775849100803</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7559145071680445</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7589356631408755</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7619851734311013</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7650155108791246</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7679870576535123</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.7708675862145309</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7736316853548482</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7762601502997426</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7787393536206614</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7810606115198088</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7832195579132616</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7852155367034682</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7870510207109657</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7887310639465482</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7902627922612727</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7916549359208103</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7929174063174638</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.7940609178591373</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.7950966550583376</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.7960359839819702</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.7968902065081767</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.7976703552616451</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5168,132 @@
       <c r="E34" t="n">
         <v>-0.7166395672946161</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7396526536244578</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7603438999233845</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7789407239513712</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.7953965656623683</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8097775499912768</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8221675928105753</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8326786863834882</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8414402634595126</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.848594553127702</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8542915854476213</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8586850904517886</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8619289527981731</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8641742402616837</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8655667515557199</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8662450474024468</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8663389255167167</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8659683005410972</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8652424490471204</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8642595790882341</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8631066835072134</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8618596365177561</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8605834940714205</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8593329601850228</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8581529836674516</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8570794524343018</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.856139955699035</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8553545876432147</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8547367695679823</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8542940709039858</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8540290127178471</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8539398404319188</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8540212553226085</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8542650969505837</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8546609709879819</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8551968189391745</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8558594280072371</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8566348808490597</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8575089462033523</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.858467412385933</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8594963664455649</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8605824223819459</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8617129022661727</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5311,132 @@
       <c r="E35" t="n">
         <v>0.7958673034654002</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.7887708114150489</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7827220011058383</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7777732524363509</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7739360247168803</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.7711866506355944</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.7694751920963642</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7687320191893748</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7688736390512818</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7698075690773902</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.7714364117563899</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7736612059820889</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.7763841411199639</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.7795107099017942</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.7829513704848557</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.7866227815921082</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.7904486689471044</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.7943603759874284</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.798297147075621</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8022061870219959</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8060425366072858</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8097687998818305</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8133547552856718</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.81677687906618</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8200178060680972</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8230657497452386</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8259139002067859</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8285598162763602</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8310048249178804</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.83325343897341</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8353128019655462</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8371921667376324</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8389024129338845</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8404556067511758</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8418646050163975</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8431427044488576</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8443033359465493</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8453598028782269</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8463250616597355</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8472115423320581</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8480310064288458</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8487944391110378</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8495119723435787</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5454,132 @@
       <c r="E36" t="n">
         <v>0.7367433045542791</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.725305998638937</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7161306236261508</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7091386700883642</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7042133226441737</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7012035175507417</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.6999358439940828</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7002228254057651</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7018702224212784</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7046829412713476</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7084698147405595</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7130473672730107</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7182426969803668</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7238955890622985</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7298599660372882</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7360047701807342</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.742214364963896</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.74838853443158</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7544421522486301</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7603045853725334</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7659188908395503</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7712408579060891</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.7762379417409334</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.7808881290308695</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.7851787702785217</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.7891054082818502</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.7926706273334425</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.7958829430999151</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.7987557489615941</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8013063308223082</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8035549590397126</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.80552406317006</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8072374926528582</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.808719864360624</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8099959960841413</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8110904234896295</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8120269968455819</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8128285528480091</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8135166561477873</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8141114046774984</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8146312925626717</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8150931242594794</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.815511973564173</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5597,132 @@
       <c r="E37" t="n">
         <v>0.7071878762892246</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6942153061446171</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6837266961990792</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6756289639441299</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6697872068933733</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6660330777993233</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6641758322070492</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6640111063968713</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6653283365242709</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.6679168191006326</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.6715706042930619</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6760923523630854</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.6812962835986971</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.6870103384862338</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.6930776547728968</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.6993574584106023</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7057254568722522</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7120738156335304</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.718310791518846</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7243600899057372</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7301600063249649</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7356624067058983</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7408315943791465</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7456431059828424</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7500824726719056</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7541439775563371</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7578294351483433</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7611470138225652</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.764110117919834</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7667363421700004</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7690465075783401</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7710637848073204</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7728129083776434</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7743194826903137</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7756093789121294</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7767082201453532</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7776409509920499</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7784314865978716</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7791024354920409</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7796748900033167</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.780168277699562</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7806002671455677</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.780986721275169</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5740,132 @@
       <c r="E38" t="n">
         <v>0.6853350179125663</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6718290632465993</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6602343455353425</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.650476286730218</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6424531132085812</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6360467520243123</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6311276223978918</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6275591957861162</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.625201755050337</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6239155821585719</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6235635867224814</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6240134387166454</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.625139254511523</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6268228848268455</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6289548497940034</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6314349636780915</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6341726892191695</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6370872591401562</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.640107600021617</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6431720913973369</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6462281905289096</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6492319508542176</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6521474595807615</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6549462173362275</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6576064802317166</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.660112582177015</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6624542528493336</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.664625944388724</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6666261776995556</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6684569171956052</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6701229809476056</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6716314914823662</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6729913709435336</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6742128829543539</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6753072223188533</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.676286152654463</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6771616911598605</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6779458389791903</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6786503550194964</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6792865706030121</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6798652419799495</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.680396437480123</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6808894559321059</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5883,132 @@
       <c r="E39" t="n">
         <v>0.5716093926437429</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.568906127358529</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5668970377881327</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5655923350160281</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5649804763677709</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5650272442545541</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5656829727320504</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5668871249179566</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5685724304937328</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5706682104401584</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5731030779995643</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5758070744381464</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5787133198330257</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5817592461848644</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.5848874744983458</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.5880463906435599</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.5911904688963275</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.5942803866446843</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.5972829688803736</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6001709966719072</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6029229097712631</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6055224297814072</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6079581268678063</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6102229498107065</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6123137362543756</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6142307173093051</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6159770282006449</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6175582344275905</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6189818808988887</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6202570697314094</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6213940708318429</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6224039680142378</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6232983422253101</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6240889924417689</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6247876939557879</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6254059930630221</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6259550365994545</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6264454343266835</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6268871518282593</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6272894313410933</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6276607377948401</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6280087272579109</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6283402349811127</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6026,132 @@
       <c r="E40" t="n">
         <v>0.7428625298909557</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7397181589539911</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7369501261294623</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7346878292885166</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7330177694671566</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7319840155402555</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7315983551480767</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.731847083207124</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7326972090805303</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7341016418350875</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7360035765792283</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7383401454044312</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7410454244506814</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7440528742623855</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7472972848756443</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7507162897776744</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7542515066018735</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.757849356707889</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7614616107056036</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7650457023942605</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7685648494068255</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7719880149882762</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7752897417329839</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.7784498847216563</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.7814532683120236</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.7842892878417882</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.7869514746966666</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.7894370405828547</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.7917464144240581</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.7938827830789572</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.7958516450440003</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.7976603844650951</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.7993178711247614</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8008340905921035</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8022198074143103</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8034862630825456</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8046449095140649</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8057071779478867</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.80668428244473</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8075870566043181</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.808425821655111</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8092102837233011</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8099494578393326</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6169,132 @@
       <c r="E41" t="n">
         <v>0.5421881938561669</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5383908083740957</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5358877915389846</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5345355138643975</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5341889170390887</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5347065739724641</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5359530842476734</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5378007948883901</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5401310629585588</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5428351163695442</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.545814565948469</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5489816221559578</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5522590642523287</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5555800057416236</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5588874959092903</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5621339933765466</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5652807437899849</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5682970900743324</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5711597401095163</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5738520132701134</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5763630840115088</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5786872376313471</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5808231505040271</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5827732045016251</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5845428429903592</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5861399737324673</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5875744222258585</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5888574374678577</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.590001250819336</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5910186875527845</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5919228297720387</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5927267286717435</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5934431635413139</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5940844444924283</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.5946622555839568</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.5951875348182241</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.5956703873738066</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.5961200284101038</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.5965447518163237</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.5969519213718631</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.5973479809266465</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.5977384803898695</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.5981281145254174</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6312,132 @@
       <c r="E42" t="n">
         <v>0.6423584348356607</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6233500865106487</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.607322510927806</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.5941911838595132</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5838103855284325</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5759969234208023</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5705403433613069</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5672129780444544</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5657780665799813</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5659965821015507</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.5676328051069648</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.5704588054860045</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.5742579546681488</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.5788275845352172</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5839808984715427</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.5895482315855656</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.5953777495619468</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6013356689677728</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6073060757280654</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6131904126538512</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.618906701154719</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6243885564954549</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6295840501373464</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6344544668706836</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6389729986624182</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6431234114937209</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6468987160285353</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6502998678086598</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6533345178708148</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6560158302670895</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6583613789663072</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6603921330302471</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6621315357938569</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6636046810223174</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6648375866535049</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6658565647410593</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6666876845670087</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6673563245680025</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6678868076888087</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6683021140134354</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6686236640003914</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6688711653367433</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6690625162986641</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6455,132 @@
       <c r="E43" t="n">
         <v>0.68405461357469</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6741784905273935</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6660040365824711</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6594398484201229</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6543751054455085</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6506861841050277</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6482416881564146</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6469065816422942</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6465456277391267</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6470261958535358</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.648220506005678</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6500073746046171</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6522735218134891</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6549144962739303</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6578352686485526</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6609505413066401</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6641848176080176</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6674722706060914</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6707564475389063</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.673989843152636</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6771333716696295</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.680155764059757</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.683032914205142</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6857471945831136</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6882867592549795</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6906448492640127</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6928191130362564</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.6948109520581475</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.6966248999849108</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.6982680414166822</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.6997494748639083</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7010798229045414</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7022707912051916</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7033347769273407</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.704284526057784</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7051328383790059</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7058923181193939</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7065751677841361</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7071930222543505</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7077568199433535</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7082767076037945</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7087619752763801</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7092210178487751</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6598,132 @@
       <c r="E44" t="n">
         <v>0.659357725248789</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6548658259612732</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6516568334988313</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6496629791089469</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6487939563566798</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6489446345715459</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6500004410473785</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6518422873764076</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.654350486549889</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.657407900486882</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6609023888962713</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6647286560560982</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6687895781665131</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.6729970879872593</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.6772726856867853</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.6815476378874756</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.6857629203823651</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.6898689540209347</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.693825177734957</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.6975994975426534</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7011676455798641</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7045124787300173</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7076232422468175</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7104948198832398</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7131269884620751</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7155236915523073</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7176923439547008</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7196431760472515</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7213886246895536</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7229427753229281</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7243208581149337</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7255387994647041</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7266128288902141</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7275591402404035</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7283936052947513</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.72913153711173</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7297874999478114</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7303751621735083</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7309071883463131</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7313951664471857</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7318495662328967</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7322797246872124</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.732693854656397</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6741,132 @@
       <c r="E45" t="n">
         <v>0.6239262914549587</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6128990530604731</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6046276145926159</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5989866226101185</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5958058815431553</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5948747871144791</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.5959576607106449</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.5988044806860262</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.603160178603192</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6087720495274386</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.615395641816826</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6227992921698485</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.6307674940633204</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.6391032611839408</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.6476296328766795</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.6561904535281005</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.664650544893029</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.6728953787388809</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.6808303466107319</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.6883797136811037</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.6954853343315287</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.702105198192259</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7082118667964846</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7137908527972151</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7188389858935241</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7233628022766962</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7273769875929703</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7309028971738011</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.73396717163651</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7366004609201936</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7388362653901128</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7407098988014594</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7422575746331582</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7435156145498983</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7445197754871504</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7453046900384382</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.745903413414718</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7463470692007421</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7466645854120249</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7468825119191204</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7470249101155776</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7471133057262032</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7471666958491193</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +6884,132 @@
       <c r="E46" t="n">
         <v>-1.274771744614598</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.276591315342063</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.278209658414566</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.279709549940964</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.281174889674247</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.282672778382428</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.284257972418033</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.285973119264127</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.28785009931928</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.289911178053327</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.292170189313946</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.294633662217474</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.297301886551577</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.300169904479779</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.303228425363436</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.306464663402785</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.309863100017136</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.313406173794983</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.317074901083606</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.320849430129857</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.324709531387166</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.328635026332226</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.332606156984611</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.336603898331371</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.340610216022458</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.344608271990043</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.348582581009879</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.352519121616161</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.356405405156944</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.360230507097223</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.3639850649138</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.367661247063758</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.371252697540348</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.374754460458689</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.378162888947769</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.381475542378247</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.384691075643673</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.387809123853158</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.390830185403141</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.393755505990641</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.396586965723992</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.399326971091453</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.401978353172501</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7027,132 @@
       <c r="E47" t="n">
         <v>-0.9914892656998354</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9940735422597904</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.9963134342293327</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.9982824776031006</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.000060312196183</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.001714051150009</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.003302169921418</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.004873959286854</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.006470204242076</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.00812373750429</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.009860103369582</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.011698238628838</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.013651161133503</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.015726647886985</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.01792789341285</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.020254141986139</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.022701289731039</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.025262453823257</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.027928506681221</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.030688573316985</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.03353049017163</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.036441223922617</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.039407249003962</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.042414882955004</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.045450579204183</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.048501177471399</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.051554112595158</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.054597583215146</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.057620682326889</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.060613492240362</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.063567146895523</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.066473864801479</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.069326956067698</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.07212080708831</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.074850846432679</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.077513495399571</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.080106106523252</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.082626893093452</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.085074852482846</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.08744968578025</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.08975171591799</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.091981806169292</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.094141280585204</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7170,132 @@
       <c r="E48" t="n">
         <v>-0.8866251268721455</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.888383371435424</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8893240846035813</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8896219525379825</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8894433684486852</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8889354129291923</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8882277105267982</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8874322270552838</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.8866439893501795</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.8859419340872136</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.8853899601266021</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8850380917503873</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.8849237132787239</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.885072837193741</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.8855013778104635</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.8862164082056183</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.8872173827874172</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.888497311345157</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.890043873138172</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.8918404618171171</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.8938671539243402</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.8961015955223753</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.8985198032199907</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.9010968775269141</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.9038076280634237</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9066271116534862</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9095310857070459</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9124963805163661</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9155011951270541</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.9185253222796179</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.9215503085450263</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9245595562001639</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.9275383736168175</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9304739809877564</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9333554781069706</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9361737806821979</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9389215313115253</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.9415929908269085</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9441839152193169</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9466914228344026</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9491138559830606</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.9514506405642886</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9537021467618925</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7313,132 @@
       <c r="E49" t="n">
         <v>-0.650726674499372</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6512708645419403</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.651329205466907</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.65102657303471</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6504791268756502</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6497887177786005</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6490437224771108</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6483191684186422</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6476773660734191</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6471686683740163</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6468323631577592</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6466976379702343</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6467845845471711</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6471052146660793</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.647664466281442</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.648461183603066</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6494890585720605</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6507375240472313</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6521925912486235</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6538376258095934</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6556540583227366</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6576220266328859</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6597209483936838</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6619300235899613</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6642286678393452</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6665968783115742</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6690155350248406</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6714666410763754</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6739335060241668</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6764008771486595</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6788550236845</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6812837793264019</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6836765483890164</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.686024280951713</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6883194221618691</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6905558406227559</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6927287404731421</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6948345613936642</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6968708703670223</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.6988362485908456</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.7007301765072003</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.7025529194828721</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.7043054162591271</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7456,132 @@
       <c r="E50" t="n">
         <v>-0.05356229215261928</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05438425845704098</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.05523557946712108</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.05611228966758695</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.05702106604293206</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.05796575789298231</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.05894955722026123</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.05997433787545935</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.06104077182881781</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.06214836043801142</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.06329554238535168</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06447982198074458</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.06569791374789485</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.0669458917301156</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.06821933685370496</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.06951347734418759</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.07082331900864614</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.07214376346103651</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.07346971330093574</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.07479616389865217</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.07611828187235566</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.0774314706282474</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.07873142352381712</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.08001416534332682</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.08127608286770552</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.08251394539173879</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.08372491609630768</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.08490655522440253</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.08605681603625442</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.08717403453000584</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.08825691390886034</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.08930450475347275</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.09031618182019809</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.09129161833338192</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.09223075857546689</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.09313378950507016</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09400111205324153</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.09483331266470812</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.09563113556664593</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.09639545616470065</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09712725588648498</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.09782759871809979</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.09849760961046612</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7599,132 @@
       <c r="E51" t="n">
         <v>-0.8769662311252309</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8786316419180698</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8795248344941812</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8797858351300497</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.879546113735953</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8789291669958263</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8780484406341306</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8770063057257684</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8758934398315833</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8747886313220319</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8737588931389627</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8728598212616823</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8721361383645316</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8716223758053634</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8713436554872032</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8713165399783772</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8715499244271276</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8720459477984568</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8728009041416998</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8738061372751084</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8750489046678597</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8765131985522888</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8781805144841622</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8800305597092212</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8820418957777704</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8841925118433269</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.8864603269459596</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.8888236212768061</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.8912613979151094</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.8937536778009867</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.8962817317450289</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.8988282540794857</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.9013774831340821</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.9039152740885041</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9064291299345475</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.9089081962982606</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.9113432257519749</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9137265170138154</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.9160518341129754</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.9183143102157627</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9205103403809043</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.9226374670609871</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.924694261705679</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7742,132 @@
       <c r="E52" t="n">
         <v>-0.8769662311252309</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8786316419180698</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8795248344941812</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8797858351300497</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.879546113735953</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8789291669958263</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8780484406341306</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8770063057257684</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8758934398315833</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8747886313220319</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8737588931389627</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8728598212616823</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8721361383645316</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8716223758053634</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8713436554872032</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8713165399783772</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8715499244271276</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8720459477984568</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8728009041416998</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8738061372751084</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8750489046678597</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8765131985522888</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8781805144841622</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8800305597092212</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8820418957777704</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8841925118433269</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.8864603269459596</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.8888236212768061</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.8912613979151094</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.8937536778009867</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.8962817317450289</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.8988282540794857</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.9013774831340821</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.9039152740885041</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9064291299345475</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.9089081962982606</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.9113432257519749</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9137265170138154</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.9160518341129754</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.9183143102157627</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9205103403809043</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.9226374670609871</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.924694261705679</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +7885,132 @@
       <c r="E53" t="n">
         <v>-1.121620408826408</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.127959406965955</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.13285848690978</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.136571996619064</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.139338819812255</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.141370423113329</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.142853772425849</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.143951722792598</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.144804360303994</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.145530393116755</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.146228697019829</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.146979922675605</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.147848132304815</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.148882433755411</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.150118589686052</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.151580584448149</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.153282135037164</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.155228135000495</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.157416022030695</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.159837061441749</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.162477539064544</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.165319858444278</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.168343538641297</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.171526110433883</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.174843910265426</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.178272772817275</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.181788624563674</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.185367982021089</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.188988359595067</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.192628592920541</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.196269084367073</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.199891977932967</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.203481271086772</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.2070228712459</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.210504604530674</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.213916184223357</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.21724914602273</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.220496756743144</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.223653902589417</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.226716962570111</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.22968367201385</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.232552980545577</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.235324908278287</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8028,132 @@
       <c r="E54" t="n">
         <v>-0.1884701549065532</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1871683262309645</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.185853287168799</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1845704257045505</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.183359612306544</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1822552193143834</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1812857298336389</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1804737590660404</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1798362214219371</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1793846491104122</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1791256085431401</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1790611832214553</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1791894949344808</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1795052413220128</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1800002324871824</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1806639134011802</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1814838621438698</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1824462567053774</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1835363052276642</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1847386362976307</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1860376473061797</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1874178100360719</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1888639335919238</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.190361385577987</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1918962730893289</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.193455585625557</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.1950273024727349</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.1966004674346604</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.1981652340341089</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.1997128844532585</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.2012358255467135</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.2027275652482183</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.2041826726124397</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.205596724596244</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.2069662425003211</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2082886207724973</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.2095620506288934</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.2107854406878141</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2119583365424466</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.2130808409296164</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.214153535889226</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.2151774080577064</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2161537780027637</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8171,132 @@
       <c r="E55" t="n">
         <v>-1.010734761296917</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.012838386563991</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.014734627697028</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.016480462709411</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.018140921231785</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.019769687769886</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.02141254171499</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.023106902615001</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.024882524736093</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.026762076619189</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.028761816756521</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.030892275613089</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.033158934192042</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.035562882197934</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.038101447636412</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.0407687926921</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.04355647319946</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.046453960280925</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.049449123348269</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.052528673886807</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.055678569501101</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.058884377746566</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.062131599394645</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.065405951018809</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.068693607145046</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.071981402659214</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.075256996666694</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.078508999515399</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.081727065181977</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.084901951650661</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.088025552261239</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.09109090125302</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.094092156880164</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.097024565522613</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.099884410173731</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.102668946562685</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.105376329980447</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.108005535638318</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.110556275111875</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.113028911125155</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.115424372622131</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.11774407176576</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.119989824207586</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8314,132 @@
       <c r="E56" t="n">
         <v>-0.8842664651380121</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8829285516332999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.8824342503148418</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.8826604351502781</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.8835106615937511</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.8848950385705115</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.8867328504737078</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.8889510597955169</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.8914839511437567</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.8942726219281523</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.897264554279947</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.9004131930174046</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9036775329105909</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.9070217086578524</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9104145881747352</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9138293714952234</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9172431989999761</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9206367729835165</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.9239939962565822</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9273016307521842</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.9305489781909869</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9337275839266106</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9368309642482774</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9398543567320864</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9427944927289236</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9456493907530633</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9484181693683718</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9511008781260443</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9536983451533686</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9562120400935313</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9586439512233949</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.960996475707582</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.963272322067855</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9654744240477495</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9676058651298428</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9696698130169912</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.971669463422061</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9736079925273661</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9754885174800958</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9773140642883672</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9790875424784828</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9808117258711518</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9824892388355158</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8457,132 @@
       <c r="E57" t="n">
         <v>-0.9146988578749151</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9060880551086424</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.8993700122823888</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.8945089332109843</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.8914300586405207</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.8900266183644675</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.8901689863392902</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.891711794770257</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.8945001665512867</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.8983749309473048</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.903176958098442</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9087506878948595</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9149469387721481</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9216250754020961</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.928654610807308</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9359163141052891</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.9433028908448622</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.9507192985234253</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-0.9580827553923286</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-0.9653224960622673</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-0.9723793227429351</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0.9792049962433117</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.9857615061865909</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-0.9920202553252354</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-0.9979611884398677</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.003571892122607</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.008846687819557</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.013785736863538</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.018394172879836</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.022681273898324</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.026659683751064</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.030344689867381</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.033753562387301</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.03690495758682</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.039818386931627</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.042513751636359</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.045010941390822</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.047329494909113</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.049488319148182</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.051505463414502</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.053397944115969</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.055181615605172</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.056871082383776</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8600,132 @@
       <c r="E58" t="n">
         <v>-1.094003682920371</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.078903523143416</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.066667977363407</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.057150490674153</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.050171209490126</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.045528505930388</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.043006957848532</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.04238384636036</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.04343472227232</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.045938036498012</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.049678928584444</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.054452250639881</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.060064903980316</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.066337562473967</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.073105853961128</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.080221068067847</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.087550455451457</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.094977179932949</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.102399981078967</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.109732600610222</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.116903021588568</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.123852564753472</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.130534881735513</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.136914880265401</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.14296761200819</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.148677149354284</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.154035473444428</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.159041391930157</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.163699501494392</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.168019206986866</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.172013806165193</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.175699646468052</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.179095357972149</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.182221164687349</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.185098274611864</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.187748347488299</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.190193037958062</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.192453610792065</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.19455062406509</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.196503675524279</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.198331206962727</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.20005036113027</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.201676885577759</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8743,132 @@
       <c r="E59" t="n">
         <v>-0.8306599125366013</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8211742180784903</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8128106912402804</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.8055972012805158</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.799528443300173</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.7945808355350105</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.7907143404605409</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.7878759557986559</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.7860024780135578</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.7850231238815063</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.784861872054443</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7854395494221174</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.7866756579568785</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.7884899500364293</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.7908037625161944</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.793541123117244</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.7966296447047374</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.8000012244139953</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8035925653403555</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8073455387811469</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8112074048997004</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8151309092637065</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8190742720698835</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8230010860660952</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.82688013826907</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.8306851695865416</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8343945854128401</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.837991129195093</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8414615298767603</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8447961330270241</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8479885243681229</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8510351533275693</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8539349631781225</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8566890332955851</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8593002380733399</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8617729260930925</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8641126222728137</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8663257549034435</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8684194087518966</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8704011047538497</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8722786062481894</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8740597512163636</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8757523095828839</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +8886,132 @@
       <c r="E60" t="n">
         <v>-0.4661478095060355</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4519888108886697</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.439959892162649</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4299904887990571</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4219648300885531</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4157528857517061</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4112111043717241</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4081881026589965</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4065284374413429</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4060760797427724</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4066772910011413</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4081830175260309</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4104508262599597</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4133464241567332</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4167447988152311</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4205310186511951</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4246007302844923</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4288603902439333</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4332272671415396</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4376292491574748</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.44200448998609</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4463009243606186</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4504756819604745</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4544944259877337</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4583306400585219</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4619648843663914</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4653840394044911</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4685805529356032</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4715517034157723</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4742988907388603</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4768269629967507</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4791435859561717</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4812586601451822</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4831837888226898</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4849317986718696</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4865163138093833</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4879513826310234</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.489251156113382</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4904296154513357</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4915003463223602</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4924763566196134</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4933699341741948</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4941925407802732</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9029,132 @@
       <c r="E61" t="n">
         <v>0.3741493832402371</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3760928704379642</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3778807630170702</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3794952687193878</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3809262937469695</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3821688225584212</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3832225102496672</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.384090968503159</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3847811394197698</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3853026805766203</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3856673853925001</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3858886395129862</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3859809196061927</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3859593391929346</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3858392452240139</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3856358676323527</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3853640225835676</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3850378686875554</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3846707141347167</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3842748716424779</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.383861557271616</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3834408286013122</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3830215574218956</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3826114319873543</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3822169839314286</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3818436351545386</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3814957602977563</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3811767608013633</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3808891469703293</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3806346249132435</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3804141856656933</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3802281942392427</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3800764767425607</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3799584040949288</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3798729711902039</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3798188706695055</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3797945607233046</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3797983265693837</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3798283354442912</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3798826851050289</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3799594459676059</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3800566971127976</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3801725564698906</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9172,132 @@
       <c r="E62" t="n">
         <v>-1.181199241746736</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.168029178239697</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.15759795561199</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.149794178543573</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.144471590958662</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.141452738535004</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.140538731083346</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.141517107279046</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.144168737330543</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.148273576212083</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.153615415197454</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.159985713004394</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.167186602554117</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.175033162985581</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.183355043392076</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.191997520359198</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.200822066944581</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.209706506006872</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.218544815806024</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.227246650569058</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.235736633304471</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.243953472637812</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.251848949928198</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.259386817508075</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.266541643653271</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.273297634907994</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.279647461711327</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.285591108931116</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.291134768925201</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.296289791123384</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.301071698852151</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.30549928119786</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.30959376510954</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.313378070664406</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.316876150442035</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.320112412260849</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.323111223107</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.325896490914589</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.328491319920437</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.330917734598862</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.333196466663733</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.335346799287532</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.337386462510599</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9315,132 @@
       <c r="E63" t="n">
         <v>-0.6974255184104285</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6765698704343499</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6575815138383416</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6405103243697549</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6253376378373303</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6120262701864173</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.6005164788557373</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.5907312039590278</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5825789804325824</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5759571553751704</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5707548046319866</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5668554503049522</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5641395298143503</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5624866081512164</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5617773245897171</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5618950729213414</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5627274192891959</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5641672663431627</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5661137761927102</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5684730676339659</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5711587053798601</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.574092000583287</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5772021428778571</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5804261845440974</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5837088973193449</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5870025218846416</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5902664292549544</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5934667122371839</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.5965757238639626</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5995715783135678</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.6024376283343144</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.6051619316467376</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.6077367172346525</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.6101578608881014</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.612424377854198</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.6145379390088322</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6165024156019951</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6183234563671516</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6200080996319011</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.6215644220307922</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.6230012245058266</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6243277554870432</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.6255534704729443</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9458,132 @@
       <c r="E64" t="n">
         <v>-0.8905245480474235</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8823041739634612</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.874382147782517</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.867027507174492</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8604283106121928</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8547188585327219</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8499844958219362</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8462699872027653</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8435862016944884</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.841916338189644</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8412214657227153</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8414454617397986</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.8425193666570816</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8443651904392641</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8468992052699454</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8500347599561643</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8536846519514508</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8577630929764104</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.8621873039900223</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.8668787747857001</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.8717642227476424</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.8767762843142201</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.8818539714699195</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.8869429241483998</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.8919954878054129</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.8969706436441633</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.901833817080737</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9065565880564235</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.9111163247682045</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.91549576032738</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9196825297958221</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.923668683014276</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.9274501866498536</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.931026426970885</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.9343997230250114</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9375748581669989</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.9405586362699661</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.9433594674686142</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9459869869337921</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9484517089695873</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9507647176592996</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9529373943645586</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9549811815992327</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9601,132 @@
       <c r="E65" t="n">
         <v>-0.082021352348983</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06896972335162431</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.05790978724869918</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.0487307688215985</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.04129457019146786</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.03545929915017672</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.03107878091527133</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.02800613784544623</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.02609595005314227</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.02520629630872123</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.02520042250307662</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02594811825222484</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.02732680734941969</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.02922237410821456</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.03152974510478152</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.03415324774082393</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.03700676796569431</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.04001373035094789</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.04310692412152568</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.04622819870133494</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.04932805180707076</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05236513216243775</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.05530567757223612</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.05812290747515266</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.06079638727247801</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.06331137978980794</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06565819724289085</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06783156510772699</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.06983000738663281</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.07165526095213437</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.07331172496457915</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.07480594981395909</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.07614616864125642</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.07734187325392018</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.07840343516390122</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07934177154192637</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.08016805509283231</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.08089346620645577</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.08152898521800149</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.08208522221117864</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.08257228150613044</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.08299965778124226</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.08337616067202283</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9744,132 @@
       <c r="E66" t="n">
         <v>-0.7566809721792701</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.742761583588527</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7321291913241036</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7245170274274664</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.719634618127268</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7171885761794917</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7168858856017837</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7184398395125887</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7215742410236367</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7260268654442015</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.731552068608228</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7379226772678484</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.7449312376199685</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.7523907052732649</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.7601346528438694</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.7680170675813591</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.7759118069499684</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.7837117756131806</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.7913278825157376</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.7986878317473408</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8057347956436454</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8124260132235652</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8187313516878127</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8246318634256695</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.830118365897925</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8351900669673586</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8398532537952845</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8441200593527145</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8480073169272814</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8515355097462153</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8547278199736457</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8576092788616574</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8602060177181087</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8625446175767527</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8646515539919375</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8665527322060201</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8682731070276212</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8698363810884023</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8712647746908918</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8725788601962984</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8737974538058416</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8749375576391519</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8760143451866653</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +9886,132 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7177899280784553</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7008789618389722</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6886072022850273</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6804494063394614</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6758998604784257</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6744724314744921</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6757064461652187</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6791699907698586</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6844625852975409</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6912168898599127</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.6990996343975572</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7078118558913432</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7170885440396361</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7266977849312519</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7364394877735388</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7461437742588617</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7556691049809499</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7649002118184075</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.773745899337801</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7821367720143499</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.790022937520746</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7973717296416142</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8041654877025219</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8103994229221378</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8160795959450289</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8212210240989964</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8258459317186169</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.829982152227125</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8336616865861071</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8369194191995554</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8397919893734184</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.842316813951807</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8445312547386811</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8464719227287923</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8481741099729294</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8496713390498415</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8509950195716186</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8521742008734413</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8532354099968078</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8542025642337258</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8550969478257061</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8559372428754264</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8567396051021838</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_12.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_12.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3140135697527972</v>
+        <v>-0.2714889216038224</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.325855809859301</v>
+        <v>-0.3397690405309686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2156474484748018</v>
+        <v>-0.5046506152826101</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1980466130065022</v>
+        <v>-0.446414115709911</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1501439283859047</v>
+        <v>-0.4967951563606399</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1274204912641633</v>
+        <v>-0.4565314086005962</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.05797921045916028</v>
+        <v>-0.1343030677661824</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08768491371053436</v>
+        <v>-0.1802913613953795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1244747309714689</v>
+        <v>-0.1905517681054592</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1248329979603581</v>
+        <v>-0.1560746376738253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4403246410658452</v>
+        <v>-0.3242565513960752</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4661835612668545</v>
+        <v>-0.3371946527317504</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3103308849438261</v>
+        <v>-0.5202927461573312</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2781174898209858</v>
+        <v>-0.4519482626887604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4053535421255747</v>
+        <v>-0.6660051600478981</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4214736441918441</v>
+        <v>-0.5324423675737826</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3077863685140212</v>
+        <v>-0.3870114545086688</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3419617491862589</v>
+        <v>-0.1902536829246043</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2198632596458272</v>
+        <v>-0.2677347412520267</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2523839996266436</v>
+        <v>-0.289408899313559</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1103124218275768</v>
+        <v>-0.1357811179378366</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1101101101107061</v>
+        <v>-0.1441767257263203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.004022845607394114</v>
+        <v>-0.04451853250109153</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01543321063959337</v>
+        <v>-0.05402721325424679</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.007810175607406114</v>
+        <v>-0.2232985962213339</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01304800678538062</v>
+        <v>-0.1617285286398429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1324754430102111</v>
+        <v>-0.0655010880719895</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05536046364716403</v>
+        <v>-0.01043827984171614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2094277682760297</v>
+        <v>-0.2825864729119449</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2922303273140344</v>
+        <v>-0.1295092751416791</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5479266027025382</v>
+        <v>-0.05852727172672531</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5756115541552026</v>
+        <v>0.07164748209223724</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07105425029831516</v>
+        <v>0.1116215181870387</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0592059676680943</v>
+        <v>0.1076427726448444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3710936843533268</v>
+        <v>0.1804747527216866</v>
       </c>
       <c r="B19" t="n">
-        <v>0.38105546834259</v>
+        <v>0.1992821640642485</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.194473076098636</v>
+        <v>-0.2776325861956371</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2419921713542693</v>
+        <v>-0.1795743994977774</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3690207680348336</v>
+        <v>0.0610769799817257</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4634244444961451</v>
+        <v>0.1170980742962695</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3141030493544485</v>
+        <v>-0.08368337526609629</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3481002522237359</v>
+        <v>0.06380485484386772</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1138472822146566</v>
+        <v>0.08126085909716947</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0900324180873277</v>
+        <v>0.08276718733306503</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.556862130786088</v>
+        <v>0.8793648853594989</v>
       </c>
       <c r="B24" t="n">
-        <v>4.641078204006591</v>
+        <v>0.7433572433828052</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.6433239894217659</v>
+        <v>0.1888685321825936</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5009123848056879</v>
+        <v>0.1449716609473377</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2103950017929433</v>
+        <v>0.2134794292027693</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3873942341786615</v>
+        <v>0.1854128721144535</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3471548948143966</v>
+        <v>0.1450299496220974</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3524642354648459</v>
+        <v>0.1431304957956619</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.046020504602608</v>
+        <v>0.4238204881983129</v>
       </c>
       <c r="B28" t="n">
-        <v>1.12890646694507</v>
+        <v>0.2740893809066163</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.386249319401767</v>
+        <v>0.6967174365804981</v>
       </c>
       <c r="B29" t="n">
-        <v>6.018652345223289</v>
+        <v>0.5779327700272949</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.140721739063586</v>
+        <v>0.2383357926378038</v>
       </c>
       <c r="B30" t="n">
-        <v>1.033529866331698</v>
+        <v>0.1994524107542594</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.2493538576499659</v>
+        <v>0.1409859775123565</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.154799951766776</v>
+        <v>0.1061080477027774</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.786520083157729</v>
+        <v>0.2039000273958634</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7756995235920929</v>
+        <v>0.2034803522650228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.006735987623924</v>
+        <v>0.08635374808093997</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9162461804338236</v>
+        <v>0.1021355747555476</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.4975381834063161</v>
+        <v>0.06538158916263581</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6550935842494154</v>
+        <v>0.04489824213560079</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8412842265605643</v>
+        <v>0.470348935636911</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8219364119905066</v>
+        <v>0.3584230454583303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8028692356988336</v>
+        <v>0.218918091842702</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7842834391820365</v>
+        <v>0.1004248712536662</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7935295434520913</v>
+        <v>-0.02345166212809501</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7601684644865452</v>
+        <v>-0.02961433200191043</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7820668989009839</v>
+        <v>0.2438465863150412</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7382220033203516</v>
+        <v>0.2063286595340373</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.5844703980617519</v>
+        <v>-0.1138876672278304</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5825960925661953</v>
+        <v>-0.1571636705192426</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7512834992005526</v>
+        <v>0.0787462122475914</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7513578368536218</v>
+        <v>0.1299504640756246</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5805925943547264</v>
+        <v>0.01190084292612895</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5631537273031965</v>
+        <v>-0.1020176820699642</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7456031735833892</v>
+        <v>0.3306898555637756</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7179397393862778</v>
+        <v>0.3177028113401377</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7485116497278329</v>
+        <v>-0.008900747196598885</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7244730836392259</v>
+        <v>0.02457878542998314</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6802059810269996</v>
+        <v>0.08762448441798998</v>
       </c>
       <c r="B44" t="n">
-        <v>0.680406968940486</v>
+        <v>0.006880123792583711</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6788495587994615</v>
+        <v>-0.1193520390177986</v>
       </c>
       <c r="B45" t="n">
-        <v>0.672662189527016</v>
+        <v>-0.08089627767262299</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.261070019130755</v>
+        <v>-0.1761564515494458</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.266442066389313</v>
+        <v>-0.1589291480285107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.9744721436008253</v>
+        <v>-0.1787085014596541</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9802214546329604</v>
+        <v>-0.1580723057225032</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8647221716518534</v>
+        <v>-0.2274787900245934</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8742256456236115</v>
+        <v>-0.1977470538024043</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6350754164865442</v>
+        <v>-0.2261173547094197</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6446067009915347</v>
+        <v>-0.1918145497072672</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.05762349337085547</v>
+        <v>-0.07576855223009549</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05071653555803813</v>
+        <v>-0.08459245785905996</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8498302047653893</v>
+        <v>-0.2516436965521065</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8663287312007221</v>
+        <v>-0.2274791057623393</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8498302047653893</v>
+        <v>-0.2516436965521065</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8663287312007221</v>
+        <v>-0.2274791057623393</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.071112977664036</v>
+        <v>-0.2115869172361382</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.090594527858412</v>
+        <v>-0.1864422125477097</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.191750703599722</v>
+        <v>-0.2030205474110467</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1919080813551201</v>
+        <v>-0.1735016429854447</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.001581896554034</v>
+        <v>-0.1698698248759659</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.001773315998872</v>
+        <v>-0.1427455500046938</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.9146087909004164</v>
+        <v>-0.09628301818186084</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8944351431311341</v>
+        <v>-0.08553992600288009</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.990362655569784</v>
+        <v>-0.1905854495412856</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9512315283883667</v>
+        <v>-0.1423186524008358</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.20305019036047</v>
+        <v>-0.1272014980566598</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.157898408136979</v>
+        <v>-0.1645691247519662</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.88874567332365</v>
+        <v>-0.2090670847908934</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8657258021339564</v>
+        <v>-0.2153037535768792</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.5466130502156099</v>
+        <v>-0.2485626281657644</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5227209645818337</v>
+        <v>-0.2376797652111406</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3627413646747232</v>
+        <v>-0.279213867352844</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3674037677542816</v>
+        <v>-0.2209887020818051</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.299372679580961</v>
+        <v>-0.1511940731555665</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.23693731724293</v>
+        <v>-0.08489015703895608</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.7868633011641275</v>
+        <v>-0.5138123228454438</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7727467809697305</v>
+        <v>-0.4684567990295513</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9069570706413685</v>
+        <v>-0.3196448844002049</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9132005957652777</v>
+        <v>-0.2932362443483825</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.1676005642818128</v>
+        <v>-0.1770104367733414</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1348743924113562</v>
+        <v>-0.1751837628722738</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.8801614050208516</v>
+        <v>-0.07477732495492206</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.821441419724717</v>
+        <v>-0.05613786915979644</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.900853687537532</v>
+        <v>0.07780695627103607</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.8020534589983982</v>
+        <v>0.05692010331208052</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_12.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.2714889216038224</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3397690405309686</v>
+        <v>-18.86632732417463</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1385.258858443359</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-81586.42825909203</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4057810.824680804</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-207893447.4258507</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-13623561073.09929</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-782676605986.7344</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-42251854837978.34</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1992671598783276</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-7.021701370302827e+16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-6.846935921577155e+17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.592113825316095e+20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.034059837416053e+22</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.874273041928705e+24</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.519493640945363e+26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.132918580751121e+28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8.10065498709826e+29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.752854277547743e+31</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.5046506152826101</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.446414115709911</v>
+        <v>-50.59967380023568</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4996.679441478233</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-434409.376066974</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-26935906.68400849</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2078576614.868708</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-207193417517.1235</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-18117810772024.46</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1529484182093030</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.167090103440407e+17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-6.855726837548344e+18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.635149183442391e+20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.860798451276755e+22</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.43353254384975e+24</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9.597399828420376e+26</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.234020662285252e+29</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.43976207379545e+31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.599343125725316e+33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.765771390330888e+35</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.4967951563606399</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4565314086005962</v>
+        <v>-37.36248031228673</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3587.606961845851</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-275299.9214392889</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-17639476.07828093</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1407373223.448691</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-125756734452.4879</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-10098021384946.97</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-793265361958755.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-5.913592173011456e+16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-3.973240354242138e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.368301344785029e+20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.289886138727678e+22</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-6.302981215067371e+23</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1.892173602976163e+25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8.673513507921974e+26</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.101740430218658e+29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.472539395804804e+31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.675347853050348e+33</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.1343030677661824</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1802913613953795</v>
+        <v>-16.60697732554469</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1955.766537371328</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-159220.6520228462</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-10978057.98744811</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1021225062.790931</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-109300369762.3481</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-9821302315286.068</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-785352454989090.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-5.465512032778157e+16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-3.126908225641423e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1.157977921847221e+20</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.835113812408001e+21</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.87719449323059e+23</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.49459560995967e+26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.780774735523153e+28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.864947811136417e+30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.838125557277629e+32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.795390565685443e+34</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>-0.1905517681054592</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1560746376738253</v>
+        <v>-19.03130078159704</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-316.1595037251842</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-30072.00778027168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-702837.7253531581</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-284686473.5025071</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-54220765015.41495</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-6647558919852.971</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-625224245461065.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-4.632521127898396e+16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-2.60795724864397e+18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-3.927459136471256e+19</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.615614814898656e+22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.097465175094803e+24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.157518544609216e+26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.909064697598309e+28</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5.319578930502438e+30</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5.52027494792641e+32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.696998583630588e+34</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.3242565513960752</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3371946527317504</v>
+        <v>-16.00792081274598</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-971.7179622876001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-51448.85053941728</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2309026.461907695</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-135606286.4198703</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-9884280132.410114</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-584205271228.465</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-30195508818798.56</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1338427217428730</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-4.5113181318456e+16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-5.662492091196508e+17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.015922673937125e+19</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.016185817477863e+21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7.936349708922313e+23</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.063670315624397e+25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.234405677099938e+27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.828120286736378e+29</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.874880945860557e+31</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>-0.5202927461573312</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4519482626887604</v>
+        <v>-31.9560935369852</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2134.614878973742</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-140088.5675072336</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-7564636.831515128</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-452838976.2708147</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-31326944402.99197</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1947405295389.535</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-120846213298899.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-6892425262267342</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-3.110048534982655e+17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-7.523376794651017e+18</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.746045270705662e+20</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.914114956645835e+22</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9.25853394438293e+24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9.236730040943714e+26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>8.396062441804783e+28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7.292273421656996e+30</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.264514098175078e+32</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>-0.6660051600478981</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5324423675737826</v>
+        <v>-30.75297277990979</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1741.59317523751</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-98643.57901301215</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4703876.677000561</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-258373219.9353803</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-16634262924.81517</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-938965967148.6238</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-50697661490501.84</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2462692241691932</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-9.329051175692558e+16</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1.600646346747709e+18</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.396851376335391e+20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.176330219708794e+22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.141011949402805e+24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.788513544891552e+26</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.351011365475601e+28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.713533407053057e+29</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.929701435993175e+31</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.3870114545086688</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1902536829246043</v>
+        <v>-43.91752483685734</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5544.550567648625</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-628398.4212718728</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-53948517.44640571</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4405016318.935435</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-490682266546.4006</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-49965562047874.62</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-5094461191149622</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-4.984456499327033e+17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-4.412095313898885e+19</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-3.41663029057103e+21</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-2.235208734251704e+23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-9.926643752084364e+24</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.784063039186635e+26</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.735593361533157e+29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.766386706493505e+31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.473839269347358e+33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.222394801150578e+35</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +1028,58 @@
         <v>-0.2677347412520267</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.289408899313559</v>
+        <v>-18.75764772678675</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1283.717911705207</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-75506.74872615431</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-3679863.073602222</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-222220434.3006222</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-16057407078.81399</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-984281275590.3695</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-54778325118595.62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-2676744542252866</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1.040477464141806e+17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-2.294877309399502e+18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.410265676756419e+19</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.528224498485132e+22</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.571654039794801e+24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.340840636429934e+26</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.027611636519005e+28</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7.481645621994691e+29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.397653544801575e+31</v>
       </c>
     </row>
     <row r="12">
@@ -526,7 +1087,58 @@
         <v>-0.1357811179378366</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1441767257263203</v>
+        <v>-16.48539958438952</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1424.896234776438</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-87431.01583095243</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-4166749.254597979</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-240421508.0818524</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-17354013685.17025</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1072235971014.893</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-60548693015002.95</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-2976352794298470</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.130310999300818e+17</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-1.777265810694751e+18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.975915743032495e+20</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.926149530264634e+22</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.842217515272154e+24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.366851066357168e+26</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.787098136763903e+28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.285285276952876e+30</v>
+      </c>
+      <c r="S12" t="n">
+        <v>9.182573186973961e+31</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +1146,58 @@
         <v>-0.04451853250109153</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.05402721325424679</v>
+        <v>-4.90032202133533</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-818.738931848482</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-69305.48925504144</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-6097225.105617781</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-571613542.5441909</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-48538300546.98144</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3484235736311.789</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-230447233833337.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.359255972273361e+16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-6.411062711810532e+17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1.732286161389659e+19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6.372103543376823e+20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.552528856744149e+23</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.852541415448281e+25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.860764345812168e+27</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.690746163023127e+29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.464423233891599e+31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.25822341536758e+33</v>
       </c>
     </row>
     <row r="14">
@@ -542,7 +1205,58 @@
         <v>-0.2232985962213339</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1617285286398429</v>
+        <v>-12.10993823943555</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-862.0286229436194</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-57355.22406820371</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3312781.053744727</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-190936997.4706762</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-11167082850.78039</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-559779447584.1488</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-27525241846733.09</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1283709819514092</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-4.740769995064326e+16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-7.647760138345882e+17</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8.044736235518244e+19</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.197103974944584e+22</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.117901416512098e+24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8.723779453075375e+25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6.081659881337579e+27</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.006162291054664e+29</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.619375165624029e+31</v>
       </c>
     </row>
     <row r="15">
@@ -550,7 +1264,58 @@
         <v>-0.0655010880719895</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.01043827984171614</v>
+        <v>-0.3896312129288857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-313.3555466296962</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-18929.17409375439</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1077967.007412679</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-55476448.54221484</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-2756946337.108481</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-114774913990.6643</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-4484102881066.245</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-157213566154689.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-3953993970658818</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2579508147973664</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8.923562536422247e+18</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.036596262629254e+20</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.487324738938093e+22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.28967485786406e+24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.804023328638956e+26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>9.451591481660791e+27</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.923107729137648e+29</v>
       </c>
     </row>
     <row r="16">
@@ -558,7 +1323,58 @@
         <v>-0.2825864729119449</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1295092751416791</v>
+        <v>-6.403188060739143</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-506.0399994031163</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-24555.6636906524</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1111583.819401674</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-49335230.37123675</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-2076181321.128966</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-80576992582.99506</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-3280152331474.719</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-128808637518621.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-4411213368120036</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-1.111440705066583e+17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1.842062506118016e+17</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.300018948374969e+20</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.114236608447287e+22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.369787614615957e+24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>7.456160157412416e+25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.73230151800569e+27</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.84626926286677e+29</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +1382,58 @@
         <v>-0.05852727172672531</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07164748209223724</v>
+        <v>2.302474566079025</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-241.9825048697699</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-11763.51990392321</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-473584.7141119096</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-14998285.44116512</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-452441271.2971004</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-3933545586.216029</v>
+      </c>
+      <c r="I17" t="n">
+        <v>409740307863.3923</v>
+      </c>
+      <c r="J17" t="n">
+        <v>40644850817502.69</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2959101411587528</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.853039686767535e+17</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.037020955264308e+19</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.324580404858606e+20</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.619069603521035e+22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.271236409147564e+24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6.131334356115649e+25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.955533168281929e+27</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.427375982360112e+29</v>
       </c>
     </row>
     <row r="18">
@@ -574,7 +1441,58 @@
         <v>0.1116215181870387</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1076427726448444</v>
+        <v>2.375814759422229</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-315.2697723823535</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-26234.9853427182</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1780070.435797286</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-84746779.92558803</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-4337052290.693402</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-155954953159.2285</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-3675670213840.845</v>
+      </c>
+      <c r="J18" t="n">
+        <v>89597185144493.19</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.454604428978649e+16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.456774319897428e+18</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.841104924379187e+20</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.20048897731883e+22</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7.473643008510335e+23</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.616364372345001e+25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.846198980962333e+27</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.757376401505379e+29</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.087031509190208e+31</v>
       </c>
     </row>
     <row r="19">
@@ -582,7 +1500,58 @@
         <v>0.1804747527216866</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1992821640642485</v>
+        <v>10.57055440401683</v>
+      </c>
+      <c r="C19" t="n">
+        <v>123.4428933933959</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1604.200167282036</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-551030.6326773867</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-56086904.87492886</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-4678560959.961063</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-288162175791.6441</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-14594342620865.19</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-617210928798403.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-2.053596359335651e+16</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-3.322556338090925e+17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.971689037750651e+19</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.683127151679457e+21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.196556171579195e+23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.529253716537119e+25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>9.603211888137741e+26</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5.726477871984566e+28</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.392586460690089e+30</v>
       </c>
     </row>
     <row r="20">
@@ -590,7 +1559,58 @@
         <v>-0.2776325861956371</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1795743994977774</v>
+        <v>-8.130119812826866</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-472.3499048165937</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-20907.19433075874</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-934051.1557332147</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-39777033.32856169</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1541603645.978553</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-51385199134.03014</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1765816443300.836</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-61286602791699.02</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-1790276982495492</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-3.352654730189889e+16</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4.909414694068219e+17</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.743791349454999e+19</v>
+      </c>
+      <c r="O20" t="n">
+        <v>7.093756065687284e+21</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.048401868094617e+23</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.012426695878252e+25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>9.347559463921281e+26</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.302423506833286e+28</v>
       </c>
     </row>
     <row r="21">
@@ -598,7 +1618,58 @@
         <v>0.0610769799817257</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1170980742962695</v>
+        <v>-2.785642613195373</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-624.6380469576781</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-43134.36171240181</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2621232.889543207</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-156631726.7077941</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-8666672199.396284</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-458548783280.6586</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-25878953970046.33</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1431299177038298</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-7.279732450544013e+16</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-3.154801876661279e+18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-9.334548026921335e+19</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.259213324810474e+20</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4.029562982100549e+23</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.092336218753487e+25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.005869138340257e+27</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.930550827353268e+29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.215244821330888e+31</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +1677,58 @@
         <v>-0.08368337526609629</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06380485484386772</v>
+        <v>2.164684491289663</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-248.2693305531123</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-20617.54221067151</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1488110.262860222</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-96045772.37601028</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-5738584985.539646</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-284830264625.4681</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-13369283869958.48</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-515985889372202.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-6073431093120032</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.618073189729931e+18</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.32065370507063e+20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.143185051475332e+22</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.681936085057947e+24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.217430743745965e+26</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>8.278375007034521e+27</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5.444749560550442e+29</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.568255270832346e+31</v>
       </c>
     </row>
     <row r="23">
@@ -614,7 +1736,58 @@
         <v>0.08126085909716947</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08276718733306503</v>
+        <v>0.5742785565173385</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-452.1227361229817</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-34970.46315434351</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2487584.379772194</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-177312973.9457882</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-11075046313.62553</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-554081924548.5571</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-25449992870125</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1000662877378389</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-1.623577871573642e+16</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.170698829201571e+18</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.213715852736906e+20</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.981786805525149e+22</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.389756881381369e+24</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.773923393862632e+26</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.242135102499777e+28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>8.435928294690899e+29</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5.709292790143916e+31</v>
       </c>
     </row>
     <row r="24">
@@ -622,7 +1795,58 @@
         <v>0.8793648853594989</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7433572433828052</v>
+        <v>2.616523961308087</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.292554375315431</v>
+      </c>
+      <c r="D24" t="n">
+        <v>38.75427984847127</v>
+      </c>
+      <c r="E24" t="n">
+        <v>125.3728452588183</v>
+      </c>
+      <c r="F24" t="n">
+        <v>494.9459220433038</v>
+      </c>
+      <c r="G24" t="n">
+        <v>685.9735672609904</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-12592.87648199544</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-147665.7110755993</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-1235207.307720828</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-9901763.875391096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-74380777.46961235</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-525250843.8445251</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-3745955533.760026</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-27834865101.43779</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-211647613792.7587</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-1637061417734.942</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-12734459165538.41</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-98719937126781.72</v>
       </c>
     </row>
     <row r="25">
@@ -630,7 +1854,58 @@
         <v>0.1888685321825936</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1449716609473377</v>
+        <v>3.83961721291065</v>
+      </c>
+      <c r="C25" t="n">
+        <v>47.14037565922339</v>
+      </c>
+      <c r="D25" t="n">
+        <v>791.6982837065373</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11744.47654755396</v>
+      </c>
+      <c r="F25" t="n">
+        <v>292382.4207658742</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7124678.793650317</v>
+      </c>
+      <c r="H25" t="n">
+        <v>164021933.4229438</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3679281087.081527</v>
+      </c>
+      <c r="J25" t="n">
+        <v>80751656707.6557</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1741218800196.308</v>
+      </c>
+      <c r="L25" t="n">
+        <v>37000922915536.34</v>
+      </c>
+      <c r="M25" t="n">
+        <v>779865233870730.6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.638748538683338e+16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.476359539000012e+17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.611747665765569e+18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.739129973652704e+20</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.08701227736465e+21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9.652298140384543e+22</v>
       </c>
     </row>
     <row r="26">
@@ -638,7 +1913,58 @@
         <v>0.2134794292027693</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1854128721144535</v>
+        <v>3.613807233873046</v>
+      </c>
+      <c r="C26" t="n">
+        <v>37.42366520892467</v>
+      </c>
+      <c r="D26" t="n">
+        <v>552.3402065649739</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7034.284184932549</v>
+      </c>
+      <c r="F26" t="n">
+        <v>104865.3964379837</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1742588.285236313</v>
+      </c>
+      <c r="H26" t="n">
+        <v>30582461.70719091</v>
+      </c>
+      <c r="I26" t="n">
+        <v>591973632.3812256</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11942918031.22399</v>
+      </c>
+      <c r="K26" t="n">
+        <v>238485516790.5771</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4651881044359.958</v>
+      </c>
+      <c r="M26" t="n">
+        <v>87717601486474.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1607293740710122</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.933398261630884e+16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.452576198527425e+17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.037836399583154e+19</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.006341225032953e+20</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.889673988501842e+21</v>
       </c>
     </row>
     <row r="27">
@@ -646,7 +1972,58 @@
         <v>0.1450299496220974</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1431304957956619</v>
+        <v>2.858089249028283</v>
+      </c>
+      <c r="C27" t="n">
+        <v>28.06928907323388</v>
+      </c>
+      <c r="D27" t="n">
+        <v>388.6816906972388</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4750.54748265025</v>
+      </c>
+      <c r="F27" t="n">
+        <v>66473.12403521259</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1036263.925698563</v>
+      </c>
+      <c r="H27" t="n">
+        <v>16278957.1836925</v>
+      </c>
+      <c r="I27" t="n">
+        <v>264698714.1326349</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4341237290.983454</v>
+      </c>
+      <c r="K27" t="n">
+        <v>70860981588.30551</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1151342350292.285</v>
+      </c>
+      <c r="M27" t="n">
+        <v>18621963618661.44</v>
+      </c>
+      <c r="N27" t="n">
+        <v>299783063161105.5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4842170634118314</v>
+      </c>
+      <c r="P27" t="n">
+        <v>7.933227274052376e+16</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.321747340351626e+18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.225549532365942e+19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.754322516279839e+20</v>
       </c>
     </row>
     <row r="28">
@@ -654,7 +2031,58 @@
         <v>0.4238204881983129</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2740893809066163</v>
+        <v>3.819292940264974</v>
+      </c>
+      <c r="C28" t="n">
+        <v>46.73574595149132</v>
+      </c>
+      <c r="D28" t="n">
+        <v>698.4209259623414</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8800.926925246438</v>
+      </c>
+      <c r="F28" t="n">
+        <v>146375.0280420801</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2485668.212758571</v>
+      </c>
+      <c r="H28" t="n">
+        <v>39780662.22288292</v>
+      </c>
+      <c r="I28" t="n">
+        <v>631677917.5482771</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9197869484.450409</v>
+      </c>
+      <c r="K28" t="n">
+        <v>119917316725.5249</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1378042232293.227</v>
+      </c>
+      <c r="M28" t="n">
+        <v>14362356121658.53</v>
+      </c>
+      <c r="N28" t="n">
+        <v>128223526204168.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>457424274628835</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-1.587455039717797e+16</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-5.132416767110643e+17</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-1.085842614723667e+19</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-2.177494424008178e+20</v>
       </c>
     </row>
     <row r="29">
@@ -662,7 +2090,58 @@
         <v>0.6967174365804981</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5779327700272949</v>
+        <v>2.020172847662189</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.135588265309092</v>
+      </c>
+      <c r="D29" t="n">
+        <v>43.96160774865609</v>
+      </c>
+      <c r="E29" t="n">
+        <v>180.9292583685467</v>
+      </c>
+      <c r="F29" t="n">
+        <v>905.9118791238715</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4049.03237819808</v>
+      </c>
+      <c r="H29" t="n">
+        <v>17723.8226662596</v>
+      </c>
+      <c r="I29" t="n">
+        <v>99317.10627049179</v>
+      </c>
+      <c r="J29" t="n">
+        <v>496591.2390888841</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1361360.855154455</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-10021837.8968356</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-235851803.2644422</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-3018799912.075627</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-31076443289.17766</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-277455277772.225</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-2258923985394.158</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-17541658197576.31</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-134700668870648.8</v>
       </c>
     </row>
     <row r="30">
@@ -670,7 +2149,58 @@
         <v>0.2383357926378038</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1994524107542594</v>
+        <v>3.282982759842899</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29.8076835164125</v>
+      </c>
+      <c r="D30" t="n">
+        <v>370.7281167172914</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3408.704138886888</v>
+      </c>
+      <c r="F30" t="n">
+        <v>43621.2797329834</v>
+      </c>
+      <c r="G30" t="n">
+        <v>628835.3669319948</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9006520.163524223</v>
+      </c>
+      <c r="I30" t="n">
+        <v>138720224.1757885</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2173142522.702167</v>
+      </c>
+      <c r="K30" t="n">
+        <v>32867168447.823</v>
+      </c>
+      <c r="L30" t="n">
+        <v>471753588377.1213</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6342733723252.511</v>
+      </c>
+      <c r="N30" t="n">
+        <v>79825836670526</v>
+      </c>
+      <c r="O30" t="n">
+        <v>962015401549549.6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.189872350316981e+16</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.662605754601865e+17</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.618763894817987e+18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.229250372185842e+19</v>
       </c>
     </row>
     <row r="31">
@@ -678,7 +2208,58 @@
         <v>0.1409859775123565</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1061080477027774</v>
+        <v>2.438656137489856</v>
+      </c>
+      <c r="C31" t="n">
+        <v>25.50467439992624</v>
+      </c>
+      <c r="D31" t="n">
+        <v>312.801400211713</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3603.611841514703</v>
+      </c>
+      <c r="F31" t="n">
+        <v>54058.87532335526</v>
+      </c>
+      <c r="G31" t="n">
+        <v>858223.1883291467</v>
+      </c>
+      <c r="H31" t="n">
+        <v>14414683.5550152</v>
+      </c>
+      <c r="I31" t="n">
+        <v>249098407.6534525</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4314897154.875603</v>
+      </c>
+      <c r="K31" t="n">
+        <v>73977240031.53108</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1240337440751.191</v>
+      </c>
+      <c r="M31" t="n">
+        <v>20216799565609.82</v>
+      </c>
+      <c r="N31" t="n">
+        <v>323879719369584.4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5189742012881115</v>
+      </c>
+      <c r="P31" t="n">
+        <v>8.397178753687336e+16</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.373891767701966e+18</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.263159600091755e+19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.731553397892988e+20</v>
       </c>
     </row>
     <row r="32">
@@ -686,7 +2267,58 @@
         <v>0.2039000273958634</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2034803522650228</v>
+        <v>4.758226137006993</v>
+      </c>
+      <c r="C32" t="n">
+        <v>63.63583332923164</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1197.484304832099</v>
+      </c>
+      <c r="E32" t="n">
+        <v>19531.83758478753</v>
+      </c>
+      <c r="F32" t="n">
+        <v>332673.0710102656</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5577164.34866874</v>
+      </c>
+      <c r="H32" t="n">
+        <v>92698557.37659675</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1869381608.919303</v>
+      </c>
+      <c r="J32" t="n">
+        <v>41257217896.75687</v>
+      </c>
+      <c r="K32" t="n">
+        <v>895484264358.562</v>
+      </c>
+      <c r="L32" t="n">
+        <v>18900221070316.39</v>
+      </c>
+      <c r="M32" t="n">
+        <v>384745332843122.9</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7547211371197060</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.466734617177866e+17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.976299775976354e+18</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>6.524559696737431e+19</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.51404785675017e+21</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.550018861115754e+22</v>
       </c>
     </row>
     <row r="33">
@@ -694,7 +2326,58 @@
         <v>0.08635374808093997</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1021355747555476</v>
+        <v>4.068240751758601</v>
+      </c>
+      <c r="C33" t="n">
+        <v>59.96983788424336</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1225.334265513339</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19388.53977904083</v>
+      </c>
+      <c r="F33" t="n">
+        <v>339465.7580342044</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6489870.66859465</v>
+      </c>
+      <c r="H33" t="n">
+        <v>119193954.162216</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2567506658.540595</v>
+      </c>
+      <c r="J33" t="n">
+        <v>58740839035.39032</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1260097549086.763</v>
+      </c>
+      <c r="L33" t="n">
+        <v>23911551886569.6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>355676615375697.7</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2218472121320292</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-9.907864220708752e+16</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-5.309263637938272e+18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-1.703029814503825e+20</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-4.640595490791759e+21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-1.234323351052652e+23</v>
       </c>
     </row>
     <row r="34">
@@ -702,7 +2385,58 @@
         <v>0.06538158916263581</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04489824213560079</v>
+        <v>3.652490285218662</v>
+      </c>
+      <c r="C34" t="n">
+        <v>46.27943419285126</v>
+      </c>
+      <c r="D34" t="n">
+        <v>865.4366468433084</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13945.97073731903</v>
+      </c>
+      <c r="F34" t="n">
+        <v>261340.0736360728</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5288073.651582159</v>
+      </c>
+      <c r="H34" t="n">
+        <v>128262630.1055693</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3386716848.714781</v>
+      </c>
+      <c r="J34" t="n">
+        <v>90026595218.56337</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2337669044090.844</v>
+      </c>
+      <c r="L34" t="n">
+        <v>58297345207559.97</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1385721162923045</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.187395354382649e+16</v>
+      </c>
+      <c r="O34" t="n">
+        <v>7.270558678405655e+17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.664089086717613e+19</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.825873447600878e+20</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8.820556083404709e+21</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.034072170088998e+23</v>
       </c>
     </row>
     <row r="35">
@@ -710,7 +2444,58 @@
         <v>0.470348935636911</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3584230454583303</v>
+        <v>75.58082797428919</v>
+      </c>
+      <c r="C35" t="n">
+        <v>11940.14133950308</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1888277.890421534</v>
+      </c>
+      <c r="E35" t="n">
+        <v>301846473.0505522</v>
+      </c>
+      <c r="F35" t="n">
+        <v>47649796998.85</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6963870310669.234</v>
+      </c>
+      <c r="H35" t="n">
+        <v>868561450823516.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.120496617166984e+17</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.51970813483455e+19</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.862163814279929e+21</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.994965788578232e+23</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.829999072695771e+25</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.241853741886707e+27</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-2.133889564091534e+28</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-2.91542226748517e+31</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-6.566266962172636e+33</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-1.091185992930583e+36</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-1.725446167167173e+38</v>
       </c>
     </row>
     <row r="36">
@@ -718,7 +2503,58 @@
         <v>0.218918091842702</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1004248712536662</v>
+        <v>22.05331781679153</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3868.471435381076</v>
+      </c>
+      <c r="D36" t="n">
+        <v>692370.3756559937</v>
+      </c>
+      <c r="E36" t="n">
+        <v>108288620.7308472</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15019908469.25399</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2079110404372.719</v>
+      </c>
+      <c r="H36" t="n">
+        <v>250778309972302.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.02559184539493e+16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.649973207163202e+18</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.983694157019165e+20</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.691301638268108e+22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.456080550802604e+24</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-8.874994151041557e+24</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-4.49076607893641e+28</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-1.085089147122398e+31</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-1.840216738299398e+33</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-2.700157123732057e+35</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-3.872326736250616e+37</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +2562,58 @@
         <v>-0.02345166212809501</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.02961433200191043</v>
+        <v>-8.068579713315065</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-220.0733198562493</v>
+      </c>
+      <c r="D37" t="n">
+        <v>28155.70492688065</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11627274.64628883</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1996589970.747815</v>
+      </c>
+      <c r="G37" t="n">
+        <v>302294814825.6544</v>
+      </c>
+      <c r="H37" t="n">
+        <v>36378638216990.52</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3799648038588245</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.501636344871276e+17</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.783268695365097e+19</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.640992816705116e+21</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.969999823705262e+22</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.454342378055116e+25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-3.282830365841438e+27</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-5.07309922928997e+29</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-6.517511324417511e+31</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-7.65078773543281e+33</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-8.858498508792856e+35</v>
       </c>
     </row>
     <row r="38">
@@ -734,7 +2621,58 @@
         <v>0.2438465863150412</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2063286595340373</v>
+        <v>41.59570220435509</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7441.549537620103</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1249835.125339967</v>
+      </c>
+      <c r="E38" t="n">
+        <v>200679925.641439</v>
+      </c>
+      <c r="F38" t="n">
+        <v>29614236617.27309</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3957658290463.47</v>
+      </c>
+      <c r="H38" t="n">
+        <v>543679284307199.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.451567679902373e+16</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.323187148044866e+19</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.000450724846351e+21</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.877073448195544e+23</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.841260574221001e+25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.59686831074531e+27</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4.883194081508919e+29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4.991443828683975e+31</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>6.087969420221664e+33</v>
+      </c>
+      <c r="R38" t="n">
+        <v>9.725668947823949e+35</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.649102379167551e+38</v>
       </c>
     </row>
     <row r="39">
@@ -742,7 +2680,58 @@
         <v>-0.1138876672278304</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1571636705192426</v>
+        <v>-33.51132175884999</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-7452.308475837684</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1546056.537221642</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-303888671.1638096</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-58861194297.88422</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-13877717924124.95</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-3708340504064204</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-1.071827893366318e+18</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-3.078719741131094e+20</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-8.493438691137744e+22</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-2.268640612640116e+25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-5.931012996535519e+27</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.53197578161572e+30</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-3.905658592779863e+32</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-9.807785558594631e+34</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-2.437059421315277e+37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-6.02896286383235e+39</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-1.49149824191363e+42</v>
       </c>
     </row>
     <row r="40">
@@ -750,7 +2739,58 @@
         <v>0.0787462122475914</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1299504640756246</v>
+        <v>21.16900139768927</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3294.340787712444</v>
+      </c>
+      <c r="D40" t="n">
+        <v>555447.5504248731</v>
+      </c>
+      <c r="E40" t="n">
+        <v>80043231.82882695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8411373969.530492</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1063272097284.382</v>
+      </c>
+      <c r="H40" t="n">
+        <v>115957584484122.3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.237572804168335e+16</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.260544312981912e+18</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.064057085276317e+20</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.747604218181701e+21</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-1.795554820308228e+23</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.197077462248488e+26</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-2.599967572353831e+28</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-4.407587393264005e+30</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-6.465966482986795e+32</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-8.805454831990369e+34</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-1.185334568447308e+37</v>
       </c>
     </row>
     <row r="41">
@@ -758,7 +2798,58 @@
         <v>0.01190084292612895</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1020176820699642</v>
+        <v>-6.052188053421469</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-964.3281503001165</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-101473.4370930418</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-454475.0199698634</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4663089367.659142</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1846198584745.619</v>
+      </c>
+      <c r="H41" t="n">
+        <v>450176057726419.6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8.181979438221707e+16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.234208634985693e+19</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.739239587547294e+21</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.279877843399853e+23</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.732933267448854e+25</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.850144795142713e+27</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2.252341052048358e+29</v>
+      </c>
+      <c r="P41" t="n">
+        <v>8.775150323399922e+30</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-4.340647208035278e+32</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-4.742723118931449e+34</v>
+      </c>
+      <c r="S41" t="n">
+        <v>7.465735190583397e+36</v>
       </c>
     </row>
     <row r="42">
@@ -766,7 +2857,58 @@
         <v>0.3306898555637756</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3177028113401377</v>
+        <v>36.47497597976972</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3321.314732201492</v>
+      </c>
+      <c r="D42" t="n">
+        <v>363684.5147843856</v>
+      </c>
+      <c r="E42" t="n">
+        <v>42877880.24660502</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4802702611.642726</v>
+      </c>
+      <c r="G42" t="n">
+        <v>459586484226.1387</v>
+      </c>
+      <c r="H42" t="n">
+        <v>42199639353571.03</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4440626915243064</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.015154496745283e+17</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5.451226097478965e+19</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.516577941095358e+21</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.946947047536582e+23</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.69081668066344e+25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.043154320564575e+27</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5.69470419959438e+28</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-1.77088844973038e+30</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-1.59631932750618e+32</v>
+      </c>
+      <c r="S42" t="n">
+        <v>9.369586153706972e+33</v>
       </c>
     </row>
     <row r="43">
@@ -774,7 +2916,58 @@
         <v>-0.008900747196598885</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02457878542998314</v>
+        <v>4.176277535169779</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2058.612791571679</v>
+      </c>
+      <c r="D43" t="n">
+        <v>712657.3968735967</v>
+      </c>
+      <c r="E43" t="n">
+        <v>213458444.8422184</v>
+      </c>
+      <c r="F43" t="n">
+        <v>57321869848.42067</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13912293415868.86</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3039488394435968</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.277577540112006e+17</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.249556014748288e+20</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.380086865020959e+22</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.221605812346338e+24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>6.670905394866539e+26</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8.739504546262817e+28</v>
+      </c>
+      <c r="O43" t="n">
+        <v>8.226018693769765e+30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.813307045491746e+32</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-6.861795351516952e+34</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-1.685438283825757e+37</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-3.164349416335187e+39</v>
       </c>
     </row>
     <row r="44">
@@ -782,7 +2975,58 @@
         <v>0.08762448441798998</v>
       </c>
       <c r="B44" t="n">
-        <v>0.006880123792583711</v>
+        <v>12.70805536278799</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2644.826262023815</v>
+      </c>
+      <c r="D44" t="n">
+        <v>550321.6509749336</v>
+      </c>
+      <c r="E44" t="n">
+        <v>116924119.7060871</v>
+      </c>
+      <c r="F44" t="n">
+        <v>25025686111.44817</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5219497548557.541</v>
+      </c>
+      <c r="H44" t="n">
+        <v>931666753221125.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.589950722545654e+17</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.497870193801516e+19</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.229910578491936e+21</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.17774471668409e+23</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-4.054713063922066e+25</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.946214360000006e+28</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-5.155510722374463e+30</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-1.171512098627753e+33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-2.401132960144871e+35</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-4.657639908945416e+37</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-8.957166119329094e+39</v>
       </c>
     </row>
     <row r="45">
@@ -790,7 +3034,58 @@
         <v>-0.1193520390177986</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.08089627767262299</v>
+        <v>-8.729162353662067</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-230.1836638926486</v>
+      </c>
+      <c r="D45" t="n">
+        <v>12993.64811520026</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6958720.383973694</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1264913488.835793</v>
+      </c>
+      <c r="G45" t="n">
+        <v>157312465869.9111</v>
+      </c>
+      <c r="H45" t="n">
+        <v>14908311077503.81</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1271771495335495</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9.995952172050982e+16</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5.278558505324692e+18</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-2.12813031626446e+20</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-1.225598413558183e+23</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-2.394716727031641e+25</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-3.617314798437224e+27</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-4.775050139973892e+29</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-5.714439939559161e+31</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-6.480150864496374e+33</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-7.289761543958074e+35</v>
       </c>
     </row>
     <row r="46">
@@ -798,7 +3093,58 @@
         <v>-0.1761564515494458</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1589291480285107</v>
+        <v>-3.798425285311961</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-198.9508529316087</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-6468.658613302665</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-190861.5929215451</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-5831416.796201495</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-202199563.3227292</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-5547762383.840062</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-128161326596.6558</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1938741137652.582</v>
+      </c>
+      <c r="K46" t="n">
+        <v>21461817540963.53</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3363430735019681</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.760527504413973e+17</v>
+      </c>
+      <c r="N46" t="n">
+        <v>7.237617068298649e+18</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.760510625519515e+20</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.01847393043657e+22</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.658717310104785e+23</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.295531201637993e+25</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4.574584409109844e+26</v>
       </c>
     </row>
     <row r="47">
@@ -806,7 +3152,58 @@
         <v>-0.1787085014596541</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1580723057225032</v>
+        <v>-4.960000548725771</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-295.4308079685748</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-11761.78171759778</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-425133.6732754842</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-15927877.36209521</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-674394509.3394969</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-23098008054.33134</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-685435907173.476</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-15352114060399.55</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-77396591404087.75</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.669234882078142e+16</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.235076201233457e+18</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.369201603382592e+19</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.97673097304984e+21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.33451794009069e+23</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5.792351039225685e+24</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.471091107958971e+26</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.050685895120219e+28</v>
       </c>
     </row>
     <row r="48">
@@ -814,7 +3211,58 @@
         <v>-0.2274787900245934</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1977470538024043</v>
+        <v>-6.099292644844246</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-318.1048914092485</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-11934.87523868789</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-409976.957600643</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-14913316.20300195</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-607744416.8425541</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-20487716337.6684</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-611520445272.4434</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-14486657576513.14</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-156842042429933.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>8590330430417396</v>
+      </c>
+      <c r="M48" t="n">
+        <v>7.448081174172968e+17</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.896122546065448e+19</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.805608723338669e+21</v>
+      </c>
+      <c r="P48" t="n">
+        <v>7.973428176353647e+22</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3.394529271815853e+24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.417432947807104e+26</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5.895643255343638e+27</v>
       </c>
     </row>
     <row r="49">
@@ -822,7 +3270,58 @@
         <v>-0.2261173547094197</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1918145497072672</v>
+        <v>-7.575079511023718</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-488.1568557198763</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-22119.7647457427</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-918948.8827989353</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-40789186.16592254</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-2011739240.36765</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-83661028779.89874</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-3131611515253.812</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-97556486433997.08</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1962802337498982</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2.184802723246678e+16</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4.846919402000877e+18</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.381601227979197e+20</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.968425864423126e+22</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.071100336480486e+24</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5.553036443289909e+25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.807706830470732e+27</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.412578888765118e+29</v>
       </c>
     </row>
     <row r="50">
@@ -830,7 +3329,58 @@
         <v>-0.07576855223009549</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.08459245785905996</v>
+        <v>-7.458890791417484</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1067.398134196118</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-88653.29486235337</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-6973284.217658764</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-558690863.7138826</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-46943628110.72088</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-3356949410229.706</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-218597950907518.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1.262097347626895e+16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-6.046457423009839e+17</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.042616243638454e+19</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-1.562248180223936e+20</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5.391476765644926e+22</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7.761870950337449e+24</v>
+      </c>
+      <c r="P50" t="n">
+        <v>8.088453030141312e+26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>7.271931700143769e+28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6.124578434637904e+30</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5.098640030248455e+32</v>
       </c>
     </row>
     <row r="51">
@@ -838,7 +3388,58 @@
         <v>-0.2516436965521065</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2274791057623393</v>
+        <v>-7.903603401987297</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-442.4657705199044</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-18524.6459548204</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-709247.6181280739</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-28870366.28315743</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1324625739.077476</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-50972098589.64328</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-1754345353114.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-48600218436289.97</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-699930624427008</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2.88495465600469e+16</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3.186065914583093e+18</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.941578183561536e+20</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.036000906759352e+22</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5.245420837875055e+23</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.553461836121203e+25</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.217390668148611e+27</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5.778418199159336e+28</v>
       </c>
     </row>
     <row r="52">
@@ -846,7 +3447,58 @@
         <v>-0.2516436965521065</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2274791057623393</v>
+        <v>-7.903603401987297</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-442.4657705199044</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-18524.6459548204</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-709247.6181280739</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-28870366.28315743</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1324625739.077476</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-50972098589.64328</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-1754345353114.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-48600218436289.97</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-699930624427008</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2.88495465600469e+16</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3.186065914583093e+18</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.941578183561536e+20</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.036000906759352e+22</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5.245420837875055e+23</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.553461836121203e+25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.217390668148611e+27</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5.778418199159336e+28</v>
       </c>
     </row>
     <row r="53">
@@ -854,7 +3506,58 @@
         <v>-0.2115869172361382</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1864422125477097</v>
+        <v>-4.23348136042165</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-188.5980943335805</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-6023.63435456161</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-177436.982209189</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-5317207.727256912</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-181119736.9149154</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-4921455398.356506</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-114180670892.1052</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1877526911232.374</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4767317027126.219</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2115603790371692</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.140533045804531e+17</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.612634791012602e+18</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.715666724816644e+20</v>
+      </c>
+      <c r="P53" t="n">
+        <v>6.1694940483529e+21</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.160351984885836e+23</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7.457926389317246e+24</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.567391367409593e+26</v>
       </c>
     </row>
     <row r="54">
@@ -862,7 +3565,58 @@
         <v>-0.2030205474110467</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1735016429854447</v>
+        <v>-11.27620241380682</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1021.359021135475</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-66967.74123061587</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-4054654.991193279</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-250652965.6864539</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-17074010740.92301</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-1014717156305.633</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-55927554004715.26</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-2732947899209274</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-1.10152042445894e+17</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-3.026129565353745e+18</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-2.916664392913388e+18</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7.552376848523035e+21</v>
+      </c>
+      <c r="O54" t="n">
+        <v>8.510545344227968e+23</v>
+      </c>
+      <c r="P54" t="n">
+        <v>7.354043554353091e+25</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5.577854834598123e+27</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.98836237255664e+29</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.820370084452784e+31</v>
       </c>
     </row>
     <row r="55">
@@ -870,7 +3624,58 @@
         <v>-0.1698698248759659</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1427455500046938</v>
+        <v>-4.110470406054996</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-238.5607220591342</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-8708.545829013514</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-292489.4386484622</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-10745706.67433244</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-437644952.0659796</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-14257456501.69289</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-397129610065.0975</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-8119299554530.125</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-19417282206723.5</v>
+      </c>
+      <c r="L55" t="n">
+        <v>9229641281794628</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6.169074746770688e+17</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.952870250912207e+19</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.286289697706648e+21</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5.392825197708603e+22</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.194553155210308e+24</v>
+      </c>
+      <c r="R55" t="n">
+        <v>8.789769193420588e+25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.509775325044761e+27</v>
       </c>
     </row>
     <row r="56">
@@ -878,7 +3683,58 @@
         <v>-0.09628301818186084</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.08553992600288009</v>
+        <v>-4.288840523114189</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-372.8639779934794</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-17749.91337607807</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-768070.0733960918</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-34589028.7670292</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1687627832.824082</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-68422324120.05207</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-2453383023505.222</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-69720250731450.59</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-953126345725389</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5.384166753579379e+16</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5.814295805004681e+18</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3.702414686601814e+20</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2.073872030573116e+22</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.096557869163692e+24</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5.550599048156518e+25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.745597533283009e+27</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.35220321590789e+29</v>
       </c>
     </row>
     <row r="57">
@@ -886,7 +3742,58 @@
         <v>-0.1905854495412856</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1423186524008358</v>
+        <v>-4.998202710144348</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-333.8679138537364</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-13244.50633520701</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-489510.4279122291</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-18474889.56557871</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-754549720.4326282</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-25438889334.88242</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-766007306122.2069</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-18466816560521.49</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-194551705195042.8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.267042041399731e+16</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.121491898391583e+18</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.143564898227828e+19</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.964918263412798e+21</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.347854393747214e+23</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5.855065813365506e+24</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.48340833311779e+26</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.049193664551058e+28</v>
       </c>
     </row>
     <row r="58">
@@ -894,7 +3801,58 @@
         <v>-0.1272014980566598</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.1645691247519662</v>
+        <v>-6.051978793243425</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-346.7793593750403</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-15313.38541966288</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-641654.9907759021</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-25928152.25212236</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1087240943.613523</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-38613223777.37668</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1257737544347.513</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-34350777524658.38</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-562984677858024</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.207746697349285e+16</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.70619389880383e+18</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.091983194285933e+20</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5.862991467085808e+21</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.881801767841749e+23</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.329029058626831e+25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5.92988114267408e+26</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.631096778862752e+28</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +3860,58 @@
         <v>-0.2090670847908934</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2153037535768792</v>
+        <v>-8.440467657774795</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-465.7551816713815</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-20659.47706649</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-870589.8190189116</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-37758320.04019263</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1734593969.535277</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-68758945908.69862</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-2519394962059.36</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-79283886991452.62</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-1789725591901872</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-2645865490519328</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.634017935028854e+18</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.070807331544087e+20</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.24927935471983e+22</v>
+      </c>
+      <c r="P59" t="n">
+        <v>6.767782701423033e+23</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3.408962186613261e+25</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.654871806124117e+27</v>
+      </c>
+      <c r="S59" t="n">
+        <v>7.980413507938528e+28</v>
       </c>
     </row>
     <row r="60">
@@ -910,7 +3919,58 @@
         <v>-0.2485626281657644</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.2376797652111406</v>
+        <v>-14.37967536014135</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1118.617138071344</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-70536.5132624632</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-4263548.132500432</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-270405030.301029</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-17874353948.08032</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-1056935744994.039</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-59239155124012.31</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-2968123914048067</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-1.243970598567576e+17</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-3.588300623630089e+18</v>
+      </c>
+      <c r="M60" t="n">
+        <v>7.951612820180042e+18</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.219674673065974e+22</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.396811262720336e+24</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.209577299087716e+26</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>9.102538405936794e+27</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6.421987013565354e+29</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4.482606701564798e+31</v>
       </c>
     </row>
     <row r="61">
@@ -918,7 +3978,58 @@
         <v>-0.279213867352844</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.2209887020818051</v>
+        <v>-42.53725894959734</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-8490.095513599328</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-1777792.684975837</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-370953086.5924205</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-76308173038.92963</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-15409849688388.11</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-2761284632071137</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-4.682390950916817e+17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-7.330584050553754e+19</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-1.032121851286929e+22</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-1.29247758592927e+24</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-1.520755118096079e+26</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-1.790947730295538e+28</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-1.939340589813517e+30</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-1.711873463828233e+32</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-1.401614720848673e+34</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-1.565839036409007e+36</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-1.646272929551981e+38</v>
       </c>
     </row>
     <row r="62">
@@ -926,7 +4037,58 @@
         <v>-0.1511940731555665</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.08489015703895608</v>
+        <v>-1.687698289754751</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-116.8922159055072</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-4053.189408190844</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-132236.0854892934</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-4692341.116807035</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-176325659.7164401</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-5131892166.812012</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-123559936498.385</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-2022527788789.825</v>
+      </c>
+      <c r="K62" t="n">
+        <v>8846185055319.812</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2644425674633403</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.460917317432262e+17</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.121279561392234e+18</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.342224097457316e+20</v>
+      </c>
+      <c r="P62" t="n">
+        <v>8.57565619282664e+21</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.031886608134761e+23</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.052142328551367e+25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.640346502268596e+26</v>
       </c>
     </row>
     <row r="63">
@@ -934,7 +4096,58 @@
         <v>-0.5138123228454438</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.4684567990295513</v>
+        <v>-19.48935372442662</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1005.774977160748</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-46104.29818683968</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1918854.110069789</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-86031951.97252649</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-4153678190.860468</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-185666840117.4106</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-8331519684317.511</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-345410409260356.2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-1.213499276727591e+16</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-3.041967065675523e+17</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-5.803204959718523e+17</v>
+      </c>
+      <c r="N63" t="n">
+        <v>6.223680786970971e+20</v>
+      </c>
+      <c r="O63" t="n">
+        <v>6.164364475711036e+22</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4.460559822114354e+24</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.782275647845783e+26</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.622549606988698e+28</v>
+      </c>
+      <c r="S63" t="n">
+        <v>9.338777792143509e+29</v>
       </c>
     </row>
     <row r="64">
@@ -942,7 +4155,58 @@
         <v>-0.3196448844002049</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2932362443483825</v>
+        <v>-8.823434641391042</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-376.0409909610089</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-13790.73258159858</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-473030.2127480109</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-17009760.98592655</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-688046576.1783488</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-23331748082.45558</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-718009358516.8381</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-18641878652513.72</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-307342594898468.4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3885892123414988</v>
+      </c>
+      <c r="M64" t="n">
+        <v>6.346651429691159e+17</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.791601697424444e+19</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.878778160760886e+21</v>
+      </c>
+      <c r="P64" t="n">
+        <v>8.58104137390457e+22</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.69628551522812e+24</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.544695477764872e+26</v>
+      </c>
+      <c r="S64" t="n">
+        <v>6.421587356361932e+27</v>
       </c>
     </row>
     <row r="65">
@@ -950,7 +4214,58 @@
         <v>-0.1770104367733414</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1751837628722738</v>
+        <v>-15.70785869646497</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1689.214113046737</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-134193.3049010536</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-9826075.567506144</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-727155896.3721888</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-57519590589.21098</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-4215121328529.95</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-297357565468234.5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-1.899326342351457e+16</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-1.074230487660017e+18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-5.090099989815459e+19</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-1.815992472826462e+21</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.355952051553558e+22</v>
+      </c>
+      <c r="O65" t="n">
+        <v>7.03877200073991e+24</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.029225921224655e+27</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.025628140870568e+29</v>
+      </c>
+      <c r="R65" t="n">
+        <v>8.950483647683994e+30</v>
+      </c>
+      <c r="S65" t="n">
+        <v>7.64930171327078e+32</v>
       </c>
     </row>
     <row r="66">
@@ -958,7 +4273,58 @@
         <v>-0.07477732495492206</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.05613786915979644</v>
+        <v>-3.398212199683102</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-316.3507992278131</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-15792.87870675106</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-765678.7188232405</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-39819800.75930591</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2054483179.158892</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-88466246935.97246</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-3410902550533.408</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-110708695022598.7</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-2476270141566718</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.103315718434218e+16</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5.412054883568979e+18</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4.245605507057303e+20</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.63255460502007e+22</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.472814181195222e+24</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7.672955226828594e+25</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.854680785792785e+27</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.925102594833842e+29</v>
       </c>
     </row>
     <row r="67">
@@ -966,7 +4332,58 @@
         <v>0.07780695627103607</v>
       </c>
       <c r="B67" t="n">
-        <v>0.05692010331208052</v>
+        <v>-0.2489375911807858</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-251.9706209669071</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-13609.22361317975</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-672207.9540447309</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-31792012.47993239</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1501052036.641161</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-60957203911.29699</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-2247997276950.155</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-69344445809692.25</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-1478829930028283</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5298461489071776</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.861809870678462e+18</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.202288917585285e+20</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.333530615818991e+22</v>
+      </c>
+      <c r="P67" t="n">
+        <v>7.197534069853354e+23</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.591361946419018e+25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.721768826949611e+27</v>
+      </c>
+      <c r="S67" t="n">
+        <v>8.201049866521504e+28</v>
       </c>
     </row>
   </sheetData>
